--- a/reports/FR/tables/time reduction.xlsx
+++ b/reports/FR/tables/time reduction.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabrizio.pastore/SVV-GIT/Oscar-MutationTestingScalability/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscar.cornejo/Workspace/CodeDrivenMutationAnalysis/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64F0937-5B0F-7349-AFB3-9E05325A2F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F12D1B2-D2DE-AC49-A351-031017DF4268}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="-23960" windowWidth="29020" windowHeight="20820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-3140" windowWidth="38400" windowHeight="21140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all test cases" sheetId="1" r:id="rId1"/>
     <sheet name="only covered" sheetId="2" r:id="rId2"/>
     <sheet name="covered_FIXED" sheetId="3" r:id="rId3"/>
+    <sheet name="covered_FIXED (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="covered_FIXED_updated" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="45">
   <si>
     <t>s1jaccard</t>
   </si>
@@ -150,6 +152,24 @@
   </si>
   <si>
     <t>MLFS_s2euclidean_sdl</t>
+  </si>
+  <si>
+    <t>ESAIL</t>
+  </si>
+  <si>
+    <t>ESAIL_s1jaccard_sdl</t>
+  </si>
+  <si>
+    <t>ESAIL_s2cosine_sdl</t>
+  </si>
+  <si>
+    <t>ESAIL_s2euclidean_sdl</t>
+  </si>
+  <si>
+    <t>ESAIL_s1ochiai_sdl</t>
+  </si>
+  <si>
+    <t>full_ts</t>
   </si>
 </sst>
 </file>
@@ -292,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +492,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -633,12 +659,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1982,9 +2012,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>covered_FIXED!$D$3:$D$51</c:f>
+              <c:f>covered_FIXED!$D$3:$D$63</c:f>
               <c:strCache>
-                <c:ptCount val="48"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>LIBGSCSP_s1jaccard_all</c:v>
                 </c:pt>
@@ -1998,146 +2028,182 @@
                   <c:v>MLFS_s1jaccard_all</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ESAIL_s1jaccard_all</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>LIBGSCSP_s1ochiai_all</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>LIBPARAM_s1ochiai_all</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>LIBUTIL_s1ochiai_all</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>MLFS_s1ochiai_all</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>ESAIL_s1ochiai_all</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>LIBGSCSP_s2cosine_all</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>LIBPARAM_s2cosine_all</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>LIBUTIL_s2cosine_all</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>MLFS_s2cosine_all</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
+                  <c:v>ESAIL_s2cosine_all</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>LIBGSCSP_s2euclidean_all</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>LIBPARAM_s2euclidean_all</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>LIBUTIL_s2euclidean_all</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>MLFS_s2euclidean_all</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
+                  <c:v>ESAIL_s2euclidean_all</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>LIBGSCSP_s1jaccard_sampling</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>LIBPARAM_s1jaccard_sampling</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>LIBUTIL_s1jaccard_sampling</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>MLFS_s1jaccard_sampling</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
+                  <c:v>ESAIL_s1jaccard_sampling</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>LIBGSCSP_s1ochiai_sampling</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>LIBPARAM_s1ochiai_sampling</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>LIBUTIL_s1ochiai_sampling</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>MLFS_s1ochiai_sampling</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
+                  <c:v>ESAIL_s1ochiai_sampling</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>LIBGSCSP_s2cosine_sampling</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31">
                   <c:v>LIBPARAM_s2cosine_sampling</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>LIBUTIL_s2cosine_sampling</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
                   <c:v>MLFS_s2cosine_sampling</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
+                  <c:v>ESAIL_s2cosine_sampling</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>LIBGSCSP_s2euclidean_sampling</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="36">
                   <c:v>LIBPARAM_s2euclidean_sampling</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="37">
                   <c:v>LIBUTIL_s2euclidean_sampling</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="38">
                   <c:v>MLFS_s2euclidean_sampling</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="39">
+                  <c:v>ESAIL_s2euclidean_sampling</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>LIBGSCSP_s1jaccard_sdl</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="41">
                   <c:v>LIBPARAM_s1jaccard_sdl</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="42">
                   <c:v>LIBUTIL_s1jaccard_sdl</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="43">
                   <c:v>MLFS_s1jaccard_sdl</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="44">
+                  <c:v>ESAIL_s1jaccard_sdl</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>LIBGSCSP_s1ochiai_sdl</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="46">
                   <c:v>LIBPARAM_s1ochiai_sdl</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="47">
                   <c:v>LIBUTIL_s1ochiai_sdl</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="48">
                   <c:v>MLFS_s1ochiai_sdl</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="49">
+                  <c:v>ESAIL_s1ochiai_sdl</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>LIBGSCSP_s2cosine_sdl</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="51">
                   <c:v>LIBPARAM_s2cosine_sdl</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="52">
                   <c:v>LIBUTIL_s2cosine_sdl</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="53">
                   <c:v>MLFS_s2cosine_sdl</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="54">
+                  <c:v>ESAIL_s2cosine_sdl</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>LIBGSCSP_s2euclidean_sdl</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="56">
                   <c:v>LIBPARAM_s2euclidean_sdl</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="57">
                   <c:v>LIBUTIL_s2euclidean_sdl</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="58">
                   <c:v>MLFS_s2euclidean_sdl</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>ESAIL_s2euclidean_sdl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>covered_FIXED!$I$3:$I$51</c:f>
+              <c:f>covered_FIXED!$I$3:$I$63</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>13.3181321930286</c:v>
                 </c:pt>
@@ -2151,136 +2217,172 @@
                   <c:v>7.19617494335884</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>52.8185565288844</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>13.3673181015336</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>16.814813442996599</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>4.1928588652213099</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>7.1905533937745902</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>52.8105755448263</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>-0.39153242145928902</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>14.8729422526555</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>2.1656420056135701</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>1.53253251277364</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
+                  <c:v>6.2675309742569496</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>-9.8548929733958707E-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>14.6755985520468</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>2.21582136985332</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>0.72267696709166096</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
+                  <c:v>-3.8854819575685999</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>89.874722873180602</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>85.714874192530601</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>93.460273630726604</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>87.739488196192397</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
+                  <c:v>93.6484839856398</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>89.8795321739683</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>85.715458350739695</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>93.460812280879594</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>87.739804744157595</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
+                  <c:v>93.645610021732693</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>89.145769389422398</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31">
                   <c:v>85.590859761382703</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>93.424862102430197</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
                   <c:v>87.688555174557706</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
+                  <c:v>90.015878712840006</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>89.154082056637506</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="36">
                   <c:v>85.560238901312104</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="37">
                   <c:v>93.425029706359695</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="38">
                   <c:v>87.680894632306405</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="39">
+                  <c:v>89.291389697501998</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>82.412684763609121</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="41">
                   <c:v>87.457778088480026</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="42">
                   <c:v>83.312192034558848</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="43">
                   <c:v>92.78095110024482</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="44">
+                  <c:v>90.853713454120197</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>82.435375318326052</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="46">
                   <c:v>87.457850456524284</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="47">
                   <c:v>83.323486811192382</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="48">
                   <c:v>92.780362496192168</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="49">
+                  <c:v>90.856004476567094</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>79.212173976256508</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="51">
                   <c:v>87.139534712928295</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="52">
                   <c:v>82.948420767486439</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="53">
                   <c:v>92.438814284284959</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="54">
+                  <c:v>81.1872318439233</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>79.34400910058001</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="56">
                   <c:v>87.209093542309859</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="57">
                   <c:v>82.983507315557532</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="58">
                   <c:v>92.31138075017671</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>78.790380028906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2569,9 +2671,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>covered_FIXED!$D$3:$D$51</c:f>
+              <c:f>covered_FIXED!$D$3:$D$63</c:f>
               <c:strCache>
-                <c:ptCount val="48"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>LIBGSCSP_s1jaccard_all</c:v>
                 </c:pt>
@@ -2585,146 +2687,182 @@
                   <c:v>MLFS_s1jaccard_all</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>ESAIL_s1jaccard_all</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>LIBGSCSP_s1ochiai_all</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>LIBPARAM_s1ochiai_all</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>LIBUTIL_s1ochiai_all</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>MLFS_s1ochiai_all</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>ESAIL_s1ochiai_all</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>LIBGSCSP_s2cosine_all</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>LIBPARAM_s2cosine_all</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>LIBUTIL_s2cosine_all</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>MLFS_s2cosine_all</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
+                  <c:v>ESAIL_s2cosine_all</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>LIBGSCSP_s2euclidean_all</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>LIBPARAM_s2euclidean_all</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>LIBUTIL_s2euclidean_all</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>MLFS_s2euclidean_all</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
+                  <c:v>ESAIL_s2euclidean_all</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>LIBGSCSP_s1jaccard_sampling</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="21">
                   <c:v>LIBPARAM_s1jaccard_sampling</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="22">
                   <c:v>LIBUTIL_s1jaccard_sampling</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
                   <c:v>MLFS_s1jaccard_sampling</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="24">
+                  <c:v>ESAIL_s1jaccard_sampling</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>LIBGSCSP_s1ochiai_sampling</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>LIBPARAM_s1ochiai_sampling</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>LIBUTIL_s1ochiai_sampling</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>MLFS_s1ochiai_sampling</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
+                  <c:v>ESAIL_s1ochiai_sampling</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>LIBGSCSP_s2cosine_sampling</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31">
                   <c:v>LIBPARAM_s2cosine_sampling</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>LIBUTIL_s2cosine_sampling</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
                   <c:v>MLFS_s2cosine_sampling</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
+                  <c:v>ESAIL_s2cosine_sampling</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>LIBGSCSP_s2euclidean_sampling</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="36">
                   <c:v>LIBPARAM_s2euclidean_sampling</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="37">
                   <c:v>LIBUTIL_s2euclidean_sampling</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="38">
                   <c:v>MLFS_s2euclidean_sampling</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="39">
+                  <c:v>ESAIL_s2euclidean_sampling</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>LIBGSCSP_s1jaccard_sdl</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="41">
                   <c:v>LIBPARAM_s1jaccard_sdl</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="42">
                   <c:v>LIBUTIL_s1jaccard_sdl</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="43">
                   <c:v>MLFS_s1jaccard_sdl</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="44">
+                  <c:v>ESAIL_s1jaccard_sdl</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>LIBGSCSP_s1ochiai_sdl</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="46">
                   <c:v>LIBPARAM_s1ochiai_sdl</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="47">
                   <c:v>LIBUTIL_s1ochiai_sdl</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="48">
                   <c:v>MLFS_s1ochiai_sdl</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="49">
+                  <c:v>ESAIL_s1ochiai_sdl</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>LIBGSCSP_s2cosine_sdl</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="51">
                   <c:v>LIBPARAM_s2cosine_sdl</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="52">
                   <c:v>LIBUTIL_s2cosine_sdl</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="53">
                   <c:v>MLFS_s2cosine_sdl</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="54">
+                  <c:v>ESAIL_s2cosine_sdl</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>LIBGSCSP_s2euclidean_sdl</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="56">
                   <c:v>LIBPARAM_s2euclidean_sdl</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="57">
                   <c:v>LIBUTIL_s2euclidean_sdl</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="58">
                   <c:v>MLFS_s2euclidean_sdl</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>ESAIL_s2euclidean_sdl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>covered_FIXED!$O$3:$O$51</c:f>
+              <c:f>covered_FIXED!$O$3:$O$63</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
                   <c:v>33.151219512195098</c:v>
                 </c:pt>
@@ -2738,55 +2876,55 @@
                   <c:v>13.3108420043325</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>91.795879320197002</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>33.143414634146303</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>14.1650324332479</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>9.4182888184698896</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>13.3058702368692</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>91.789394610628506</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>9.3902439024390194</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>10.9971338060039</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>4.8200543232231796</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>6.64441208849746</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
+                  <c:v>43.201969810787702</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>10.3707317073171</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>10.4389802383467</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>4.8511770031688499</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>5.4487020135658204</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
+                  <c:v>38.726878158085697</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>87.828292682926801</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>81.283753205611703</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>86.077410593028503</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>82.8278703078945</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>87.826341463414593</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>81.283753205611703</c:v>
@@ -2795,79 +2933,115 @@
                   <c:v>86.077410593028503</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>82.8278703078945</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>96.578641549653</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>87.826341463414593</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>81.283753205611703</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>86.077410593028503</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>82.828580560389199</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
+                  <c:v>96.578705754698206</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>86.469268292682898</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="31">
                   <c:v>81.077085533262903</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
                   <c:v>85.993662290629203</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="33">
                   <c:v>82.767853972087096</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
+                  <c:v>92.749324241898904</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>86.537560975609793</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="36">
                   <c:v>81.010710514406398</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="37">
                   <c:v>85.995359891353601</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="38">
                   <c:v>82.756845058418307</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>99.791304734156768</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>99.820657133286431</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>99.941370594306775</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>99.958975986533787</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>99.791304734156768</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>99.820657133286431</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>99.941357429021068</c:v>
-                </c:pt>
                 <c:pt idx="39">
-                  <c:v>99.958971720753027</c:v>
+                  <c:v>92.510417268588995</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>99.956665905555383</c:v>
+                  <c:v>85.843902439024404</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>99.855656392550742</c:v>
+                  <c:v>83.496756675214996</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>99.962894061347214</c:v>
+                  <c:v>84.880036215482093</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>99.971810467014819</c:v>
+                  <c:v>93.169501757874897</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>99.943012999902962</c:v>
+                  <c:v>98.359111658994195</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>99.850086412475108</c:v>
+                  <c:v>85.843902439024404</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>99.962393946905365</c:v>
+                  <c:v>83.496756675214996</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>99.978467261108406</c:v>
+                  <c:v>84.876641014033495</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>93.168791505380199</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>98.358148583315696</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>80.443902439024399</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>82.908432644441106</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>84.081032141240399</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>92.801590965588304</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>88.311728335612599</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>80.760975609756102</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>82.998944033790906</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>84.089520144861893</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>92.630420114350699</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>87.2459887897991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5372,13 +5546,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5410,13 +5584,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7559,8 +7733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E31E62-50B2-E248-826D-3D4F60EA8A4D}">
   <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8451,47 +8625,47 @@
       <c r="B19" t="s">
         <v>0</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>LIBGSCSP_s1jaccard_sampling</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>252776</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="6">
         <v>89.009937103818103</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="6">
         <v>90.721878944066404</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="6">
         <v>89.738061279103604</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="6">
         <v>89.874722873180602</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="7">
         <v>0.31422745910196898</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="8">
         <v>10250</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="6">
         <v>87.239024390243898</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="6">
         <v>88.770731707317097</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="6">
         <v>87.521951219512204</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="6">
         <v>87.828292682926801</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="7">
         <v>0.36112261220173197</v>
       </c>
     </row>
@@ -8502,47 +8676,47 @@
       <c r="B20" t="s">
         <v>0</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>LIBPARAM_s1jaccard_sampling</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>47949</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="6">
         <v>83.899632067920706</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="6">
         <v>87.926500926321395</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="6">
         <v>85.815629283231601</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="6">
         <v>85.714874192530601</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="7">
         <v>1.9079930610010001</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="8">
         <v>6629</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="6">
         <v>79.559511238497507</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="6">
         <v>82.938603107557697</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="6">
         <v>81.233971941469306</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="6">
         <v>81.283753205611703</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="7">
         <v>1.16336134580503</v>
       </c>
     </row>
@@ -8553,47 +8727,47 @@
       <c r="B21" t="s">
         <v>0</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>LIBUTIL_s1jaccard_sampling</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="5">
         <v>214016</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="6">
         <v>92.667035585327994</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="6">
         <v>94.329952057613198</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="6">
         <v>93.460075515125595</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="6">
         <v>93.460273630726604</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="7">
         <v>0.17286151885651699</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="8">
         <v>17672</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="6">
         <v>84.772521502942496</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="6">
         <v>87.177455862381194</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="6">
         <v>86.090991398822993</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="6">
         <v>86.077410593028503</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="7">
         <v>0.417470937137078</v>
       </c>
     </row>
@@ -8604,47 +8778,47 @@
       <c r="B22" t="s">
         <v>0</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>MLFS_s1jaccard_sampling</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <v>171790</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="6">
         <v>86.659254236394702</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="6">
         <v>88.315161580535005</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="6">
         <v>87.875443102392197</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="6">
         <v>87.739488196192397</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="7">
         <v>0.35618350066412802</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="8">
         <v>28159</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="6">
         <v>81.320359387762394</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="6">
         <v>83.614474945843199</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="6">
         <v>83.099541887140902</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="6">
         <v>82.8278703078945</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="7">
         <v>0.65917676150939297</v>
       </c>
     </row>
@@ -8655,47 +8829,47 @@
       <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>LIBGSCSP_s1ochiai_sampling</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <v>252776</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="6">
         <v>89.013727007538293</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="6">
         <v>90.734214724630505</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="6">
         <v>89.737159495645301</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="6">
         <v>89.8795321739683</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="7">
         <v>0.31564675384190899</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="8">
         <v>10250</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="6">
         <v>87.239024390243898</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="6">
         <v>88.731707317073202</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="6">
         <v>87.521951219512204</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="6">
         <v>87.826341463414593</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="7">
         <v>0.35094031330557302</v>
       </c>
     </row>
@@ -8706,47 +8880,47 @@
       <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>LIBPARAM_s1ochiai_sampling</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <v>47949</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="6">
         <v>83.899663350937999</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="6">
         <v>87.926444616890294</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="6">
         <v>85.818190319578804</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="6">
         <v>85.715458350739695</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="7">
         <v>1.9080348405432701</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="8">
         <v>6629</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="6">
         <v>79.559511238497507</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="6">
         <v>82.938603107557697</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="6">
         <v>81.233971941469306</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="6">
         <v>81.283753205611703</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="7">
         <v>1.16336134580503</v>
       </c>
     </row>
@@ -8757,47 +8931,47 @@
       <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>LIBUTIL_s1ochiai_sampling</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="5">
         <v>214016</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="6">
         <v>92.667035585327994</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="6">
         <v>94.335183430889501</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="6">
         <v>93.457709108376903</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="6">
         <v>93.460812280879594</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="7">
         <v>0.173694479659708</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="8">
         <v>17672</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="6">
         <v>84.772521502942496</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="6">
         <v>87.177455862381194</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="6">
         <v>86.090991398822993</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="6">
         <v>86.077410593028503</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="7">
         <v>0.417470937137078</v>
       </c>
     </row>
@@ -8808,47 +8982,47 @@
       <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>MLFS_s1ochiai_sampling</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="5">
         <v>171790</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="6">
         <v>86.659240265907002</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="6">
         <v>88.316924190388804</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="6">
         <v>87.875392459374595</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="6">
         <v>87.739804744157595</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="7">
         <v>0.355780123810644</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="8">
         <v>28159</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="6">
         <v>81.320359387762394</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="6">
         <v>83.618026208317005</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="6">
         <v>83.099541887140902</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="6">
         <v>82.828580560389199</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="7">
         <v>0.65815607359594597</v>
       </c>
     </row>
@@ -8859,47 +9033,47 @@
       <c r="B27" t="s">
         <v>2</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>LIBGSCSP_s2cosine_sampling</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="5">
         <v>252776</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="6">
         <v>88.147866535415204</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="6">
         <v>90.078491754407807</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="6">
         <v>89.136883845424606</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="6">
         <v>89.145769389422398</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="7">
         <v>0.42308133994310698</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="8">
         <v>10250</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="6">
         <v>85.492682926829303</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="6">
         <v>87.853658536585399</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="6">
         <v>86.068292682926796</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="6">
         <v>86.469268292682898</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="7">
         <v>0.673830656355345</v>
       </c>
     </row>
@@ -8910,47 +9084,47 @@
       <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D28" s="5" t="str">
         <f t="shared" si="0"/>
         <v>LIBPARAM_s2cosine_sampling</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="5">
         <v>47949</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="6">
         <v>83.763757410712202</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="6">
         <v>87.861968232763303</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="6">
         <v>85.678375044961498</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="6">
         <v>85.590859761382703</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="7">
         <v>1.9433560883913199</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="8">
         <v>6629</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="6">
         <v>79.287977070447994</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="6">
         <v>82.802836023533004</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="6">
         <v>81.052949162769707</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="6">
         <v>81.077085533262903</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="7">
         <v>1.25869305084564</v>
       </c>
     </row>
@@ -8961,47 +9135,47 @@
       <c r="B29" t="s">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>LIBUTIL_s2cosine_sampling</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="5">
         <v>214016</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="6">
         <v>92.646569402684506</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="6">
         <v>94.272209303226404</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="6">
         <v>93.429105000343398</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="6">
         <v>93.424862102430197</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="7">
         <v>0.16525906027248699</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="8">
         <v>17672</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="6">
         <v>84.704617473970103</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="6">
         <v>87.013354459031206</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="6">
         <v>86.014599366229106</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="6">
         <v>85.993662290629203</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="7">
         <v>0.40408350691594602</v>
       </c>
     </row>
@@ -9012,47 +9186,47 @@
       <c r="B30" t="s">
         <v>2</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D30" s="5" t="str">
         <f t="shared" si="0"/>
         <v>MLFS_s2cosine_sampling</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="5">
         <v>171790</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="6">
         <v>86.574263610795597</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="6">
         <v>88.265655411368598</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="6">
         <v>87.820329237708293</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="6">
         <v>87.688555174557706</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="7">
         <v>0.36570037273371803</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="8">
         <v>28159</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="6">
         <v>81.235129088390906</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="6">
         <v>83.525693383998004</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="6">
         <v>83.035619162612306</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="6">
         <v>82.767853972087096</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="7">
         <v>0.67119114385575596</v>
       </c>
     </row>
@@ -9063,47 +9237,47 @@
       <c r="B31" t="s">
         <v>3</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D31" s="5" t="str">
         <f t="shared" si="0"/>
         <v>LIBGSCSP_s2euclidean_sampling</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="5">
         <v>252776</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="6">
         <v>88.127770946764201</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="6">
         <v>90.140208239780804</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="6">
         <v>89.146695067471995</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="6">
         <v>89.154082056637506</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="7">
         <v>0.437811189886329</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="8">
         <v>10250</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="6">
         <v>85.648780487804899</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="6">
         <v>87.921951219512195</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="6">
         <v>86.151219512195098</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="6">
         <v>86.537560975609793</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="7">
         <v>0.67230775332143899</v>
       </c>
     </row>
@@ -9114,47 +9288,47 @@
       <c r="B32" t="s">
         <v>3</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D32" s="5" t="str">
         <f t="shared" si="0"/>
         <v>LIBPARAM_s2euclidean_sampling</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="5">
         <v>47949</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="6">
         <v>83.691614601819595</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="6">
         <v>87.848101513974996</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="6">
         <v>85.662996313671798</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="6">
         <v>85.560238901312104</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="7">
         <v>1.9653910638792</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="8">
         <v>6629</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="6">
         <v>79.197465681098194</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="6">
         <v>82.757580328858097</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="6">
         <v>80.992608236536398</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="6">
         <v>81.010710514406398</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="7">
         <v>1.2518964664054399</v>
       </c>
     </row>
@@ -9165,47 +9339,47 @@
       <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D33" s="5" t="str">
         <f t="shared" si="0"/>
         <v>LIBUTIL_s2euclidean_sampling</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="5">
         <v>214016</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="6">
         <v>92.646275500059403</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="6">
         <v>94.272277522277705</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="6">
         <v>93.428859458484098</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="6">
         <v>93.425029706359695</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="7">
         <v>0.165250902706264</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="8">
         <v>17672</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="6">
         <v>84.704617473970103</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="6">
         <v>87.013354459031206</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="6">
         <v>86.014599366229106</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="6">
         <v>85.995359891353601</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33" s="7">
         <v>0.404394106112903</v>
       </c>
     </row>
@@ -9216,47 +9390,47 @@
       <c r="B34" t="s">
         <v>3</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D34" s="5" t="str">
         <f t="shared" si="0"/>
         <v>MLFS_s2euclidean_sampling</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="5">
         <v>171790</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="6">
         <v>86.572775753864804</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="6">
         <v>88.2658236393235</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="6">
         <v>87.812041245932093</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="6">
         <v>87.680894632306405</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="7">
         <v>0.365089050465075</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="8">
         <v>28159</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="6">
         <v>81.2315778259171</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="6">
         <v>83.525693383998004</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="6">
         <v>83.021414112717096</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="6">
         <v>82.756845058418307</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34" s="7">
         <v>0.66887918203753105</v>
       </c>
     </row>
@@ -11000,13 +11174,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210496BF-2660-9346-A4AB-BBA6F454ABAD}">
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="F1" t="s">
@@ -11075,7 +11252,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D34" si="0">A3&amp;"_"&amp;B3&amp;"_"&amp;C3</f>
+        <f t="shared" ref="D3:D41" si="0">A3&amp;"_"&amp;B3&amp;"_"&amp;C3</f>
         <v>LIBGSCSP_s1jaccard_all</v>
       </c>
       <c r="E3">
@@ -11270,58 +11447,54 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>LIBGSCSP_s1ochiai_all</v>
+        <v>ESAIL_s1jaccard_all</v>
       </c>
       <c r="E7">
-        <v>252776</v>
+        <v>39604457</v>
       </c>
       <c r="F7" s="2">
-        <v>13.0662849017792</v>
+        <v>52.777693084658502</v>
       </c>
       <c r="G7" s="2">
-        <v>13.4908644924672</v>
+        <v>52.853121092659499</v>
       </c>
       <c r="H7" s="2">
-        <v>13.4034195850277</v>
+        <v>52.822802565636501</v>
       </c>
       <c r="I7" s="2">
-        <v>13.3673181015336</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.7557890501974299E-2</v>
-      </c>
-      <c r="K7" s="3">
-        <v>10250</v>
+        <v>52.8185565288844</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="4">
+        <v>155751</v>
       </c>
       <c r="L7" s="2">
-        <v>33.112195121951203</v>
+        <v>91.787532664316799</v>
       </c>
       <c r="M7" s="2">
-        <v>33.170731707317103</v>
+        <v>91.808078278791101</v>
       </c>
       <c r="N7" s="2">
-        <v>33.151219512195098</v>
+        <v>91.792669067935407</v>
       </c>
       <c r="O7" s="2">
-        <v>33.143414634146303</v>
-      </c>
-      <c r="P7" s="1">
-        <v>4.3994976535128801E-4</v>
-      </c>
+        <v>91.795879320197002</v>
+      </c>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -11331,48 +11504,48 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>LIBPARAM_s1ochiai_all</v>
+        <v>LIBGSCSP_s1ochiai_all</v>
       </c>
       <c r="E8">
-        <v>47949</v>
+        <v>252776</v>
       </c>
       <c r="F8" s="2">
-        <v>16.8095351637694</v>
+        <v>13.0662849017792</v>
       </c>
       <c r="G8" s="2">
-        <v>16.819587439985401</v>
+        <v>13.4908644924672</v>
       </c>
       <c r="H8" s="2">
-        <v>16.8148637043777</v>
+        <v>13.4034195850277</v>
       </c>
       <c r="I8" s="2">
-        <v>16.814813442996599</v>
+        <v>13.3673181015336</v>
       </c>
       <c r="J8" s="1">
-        <v>2.01527030071007E-5</v>
+        <v>1.7557890501974299E-2</v>
       </c>
       <c r="K8" s="3">
-        <v>6629</v>
+        <v>10250</v>
       </c>
       <c r="L8" s="2">
-        <v>14.1650324332479</v>
+        <v>33.112195121951203</v>
       </c>
       <c r="M8" s="2">
-        <v>14.1650324332479</v>
+        <v>33.170731707317103</v>
       </c>
       <c r="N8" s="2">
-        <v>14.1650324332479</v>
+        <v>33.151219512195098</v>
       </c>
       <c r="O8" s="2">
-        <v>14.1650324332479</v>
+        <v>33.143414634146303</v>
       </c>
       <c r="P8" s="1">
-        <v>0</v>
+        <v>4.3994976535128801E-4</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -11382,48 +11555,48 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>LIBUTIL_s1ochiai_all</v>
+        <v>LIBPARAM_s1ochiai_all</v>
       </c>
       <c r="E9">
-        <v>214016</v>
+        <v>47949</v>
       </c>
       <c r="F9" s="2">
-        <v>4.0857936432945996</v>
+        <v>16.8095351637694</v>
       </c>
       <c r="G9" s="2">
-        <v>4.2676053583205196</v>
+        <v>16.819587439985401</v>
       </c>
       <c r="H9" s="2">
-        <v>4.1792420622297701</v>
+        <v>16.8148637043777</v>
       </c>
       <c r="I9" s="2">
-        <v>4.1928588652213099</v>
+        <v>16.814813442996599</v>
       </c>
       <c r="J9" s="1">
-        <v>4.2364773216397597E-3</v>
+        <v>2.01527030071007E-5</v>
       </c>
       <c r="K9" s="3">
-        <v>17672</v>
+        <v>6629</v>
       </c>
       <c r="L9" s="2">
-        <v>9.4103666817564502</v>
+        <v>14.1650324332479</v>
       </c>
       <c r="M9" s="2">
-        <v>9.4330013580805794</v>
+        <v>14.1650324332479</v>
       </c>
       <c r="N9" s="2">
-        <v>9.4160253508374794</v>
+        <v>14.1650324332479</v>
       </c>
       <c r="O9" s="2">
-        <v>9.4182888184698896</v>
+        <v>14.1650324332479</v>
       </c>
       <c r="P9" s="1">
-        <v>8.6811230306068005E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -11433,150 +11606,146 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>MLFS_s1ochiai_all</v>
+        <v>LIBUTIL_s1ochiai_all</v>
       </c>
       <c r="E10">
-        <v>171790</v>
+        <v>214016</v>
       </c>
       <c r="F10" s="2">
-        <v>7.1791856080041496</v>
+        <v>4.0857936432945996</v>
       </c>
       <c r="G10" s="2">
-        <v>7.2016326889758302</v>
+        <v>4.2676053583205196</v>
       </c>
       <c r="H10" s="2">
-        <v>7.19188303493313</v>
+        <v>4.1792420622297701</v>
       </c>
       <c r="I10" s="2">
-        <v>7.1905533937745902</v>
+        <v>4.1928588652213099</v>
       </c>
       <c r="J10" s="1">
-        <v>5.2540794614259701E-5</v>
+        <v>4.2364773216397597E-3</v>
       </c>
       <c r="K10" s="3">
-        <v>28159</v>
+        <v>17672</v>
       </c>
       <c r="L10" s="2">
-        <v>13.2888241769949</v>
+        <v>9.4103666817564502</v>
       </c>
       <c r="M10" s="2">
-        <v>13.3278880642068</v>
+        <v>9.4330013580805794</v>
       </c>
       <c r="N10" s="2">
-        <v>13.2977023331794</v>
+        <v>9.4160253508374794</v>
       </c>
       <c r="O10" s="2">
-        <v>13.3058702368692</v>
+        <v>9.4182888184698896</v>
       </c>
       <c r="P10" s="1">
-        <v>2.4886624578231099E-4</v>
+        <v>8.6811230306068005E-5</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>LIBGSCSP_s2cosine_all</v>
+        <v>MLFS_s1ochiai_all</v>
       </c>
       <c r="E11">
-        <v>252776</v>
+        <v>171790</v>
       </c>
       <c r="F11" s="2">
-        <v>-0.52864014021536099</v>
+        <v>7.1791856080041496</v>
       </c>
       <c r="G11" s="2">
-        <v>-0.259095304091707</v>
+        <v>7.2016326889758302</v>
       </c>
       <c r="H11" s="2">
-        <v>-0.33767152034123998</v>
+        <v>7.19188303493313</v>
       </c>
       <c r="I11" s="2">
-        <v>-0.39153242145928902</v>
+        <v>7.1905533937745902</v>
       </c>
       <c r="J11" s="1">
-        <v>1.2380755354311599E-2</v>
+        <v>5.2540794614259701E-5</v>
       </c>
       <c r="K11" s="3">
-        <v>10250</v>
+        <v>28159</v>
       </c>
       <c r="L11" s="2">
-        <v>9.3853658536585396</v>
+        <v>13.2888241769949</v>
       </c>
       <c r="M11" s="2">
-        <v>9.3951219512195099</v>
+        <v>13.3278880642068</v>
       </c>
       <c r="N11" s="2">
-        <v>9.3902439024390194</v>
+        <v>13.2977023331794</v>
       </c>
       <c r="O11" s="2">
-        <v>9.3902439024390194</v>
+        <v>13.3058702368692</v>
       </c>
       <c r="P11" s="1">
-        <v>2.6439288783131799E-5</v>
+        <v>2.4886624578231099E-4</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>LIBPARAM_s2cosine_all</v>
+        <v>ESAIL_s1ochiai_all</v>
       </c>
       <c r="E12">
-        <v>47949</v>
+        <v>39604457</v>
       </c>
       <c r="F12" s="2">
-        <v>14.864880619105101</v>
+        <v>52.781090699729397</v>
       </c>
       <c r="G12" s="2">
-        <v>14.883583692363301</v>
+        <v>52.830967517877703</v>
       </c>
       <c r="H12" s="2">
-        <v>14.872406270292901</v>
+        <v>52.810685093607702</v>
       </c>
       <c r="I12" s="2">
-        <v>14.8729422526555</v>
-      </c>
-      <c r="J12" s="1">
-        <v>2.64511318118747E-5</v>
-      </c>
-      <c r="K12" s="3">
-        <v>6629</v>
+        <v>52.8105755448263</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="4">
+        <v>155751</v>
       </c>
       <c r="L12" s="2">
-        <v>10.9971338060039</v>
+        <v>91.757998343509797</v>
       </c>
       <c r="M12" s="2">
-        <v>10.9971338060039</v>
+        <v>91.818993136480699</v>
       </c>
       <c r="N12" s="2">
-        <v>10.9971338060039</v>
+        <v>91.777259857079599</v>
       </c>
       <c r="O12" s="2">
-        <v>10.9971338060039</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
+        <v>91.789394610628506</v>
+      </c>
+      <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -11586,48 +11755,48 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>LIBUTIL_s2cosine_all</v>
+        <v>LIBGSCSP_s2cosine_all</v>
       </c>
       <c r="E13">
-        <v>214016</v>
+        <v>252776</v>
       </c>
       <c r="F13" s="2">
-        <v>2.0271090174362398</v>
+        <v>-0.52864014021536099</v>
       </c>
       <c r="G13" s="2">
-        <v>2.25460600315877</v>
+        <v>-0.259095304091707</v>
       </c>
       <c r="H13" s="2">
-        <v>2.19802624342047</v>
+        <v>-0.33767152034123998</v>
       </c>
       <c r="I13" s="2">
-        <v>2.1656420056135701</v>
+        <v>-0.39153242145928902</v>
       </c>
       <c r="J13" s="1">
-        <v>9.8183500096033598E-3</v>
+        <v>1.2380755354311599E-2</v>
       </c>
       <c r="K13" s="3">
-        <v>17672</v>
+        <v>10250</v>
       </c>
       <c r="L13" s="2">
-        <v>4.8042100497962901</v>
+        <v>9.3853658536585396</v>
       </c>
       <c r="M13" s="2">
-        <v>4.8438207333635104</v>
+        <v>9.3951219512195099</v>
       </c>
       <c r="N13" s="2">
-        <v>4.8098687188773201</v>
+        <v>9.3902439024390194</v>
       </c>
       <c r="O13" s="2">
-        <v>4.8200543232231796</v>
+        <v>9.3902439024390194</v>
       </c>
       <c r="P13" s="1">
-        <v>3.4724492122425597E-4</v>
+        <v>2.6439288783131799E-5</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -11637,40 +11806,40 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>MLFS_s2cosine_all</v>
+        <v>LIBPARAM_s2cosine_all</v>
       </c>
       <c r="E14">
-        <v>171790</v>
+        <v>47949</v>
       </c>
       <c r="F14" s="2">
-        <v>1.5317539491410599</v>
+        <v>14.864880619105101</v>
       </c>
       <c r="G14" s="2">
-        <v>1.53330933009527</v>
+        <v>14.883583692363301</v>
       </c>
       <c r="H14" s="2">
-        <v>1.53255463271236</v>
+        <v>14.872406270292901</v>
       </c>
       <c r="I14" s="2">
-        <v>1.53253251277364</v>
+        <v>14.8729422526555</v>
       </c>
       <c r="J14" s="1">
-        <v>2.6778466155767601E-7</v>
+        <v>2.64511318118747E-5</v>
       </c>
       <c r="K14" s="3">
-        <v>28159</v>
+        <v>6629</v>
       </c>
       <c r="L14" s="2">
-        <v>6.64441208849746</v>
+        <v>10.9971338060039</v>
       </c>
       <c r="M14" s="2">
-        <v>6.64441208849746</v>
+        <v>10.9971338060039</v>
       </c>
       <c r="N14" s="2">
-        <v>6.64441208849746</v>
+        <v>10.9971338060039</v>
       </c>
       <c r="O14" s="2">
-        <v>6.64441208849746</v>
+        <v>10.9971338060039</v>
       </c>
       <c r="P14" s="1">
         <v>0</v>
@@ -11678,160 +11847,156 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>LIBGSCSP_s2euclidean_all</v>
+        <v>LIBUTIL_s2cosine_all</v>
       </c>
       <c r="E15">
-        <v>252776</v>
+        <v>214016</v>
       </c>
       <c r="F15" s="2">
-        <v>-0.21488556290771399</v>
+        <v>2.0271090174362398</v>
       </c>
       <c r="G15" s="2">
-        <v>-3.4990938846580402E-2</v>
+        <v>2.25460600315877</v>
       </c>
       <c r="H15" s="2">
-        <v>-8.2263855866242797E-2</v>
+        <v>2.19802624342047</v>
       </c>
       <c r="I15" s="2">
-        <v>-9.8548929733958707E-2</v>
+        <v>2.1656420056135701</v>
       </c>
       <c r="J15" s="1">
-        <v>3.8490039952342198E-3</v>
+        <v>9.8183500096033598E-3</v>
       </c>
       <c r="K15" s="3">
-        <v>10250</v>
+        <v>17672</v>
       </c>
       <c r="L15" s="2">
-        <v>10.3707317073171</v>
+        <v>4.8042100497962901</v>
       </c>
       <c r="M15" s="2">
-        <v>10.3707317073171</v>
+        <v>4.8438207333635104</v>
       </c>
       <c r="N15" s="2">
-        <v>10.3707317073171</v>
+        <v>4.8098687188773201</v>
       </c>
       <c r="O15" s="2">
-        <v>10.3707317073171</v>
+        <v>4.8200543232231796</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>3.4724492122425597E-4</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>LIBPARAM_s2euclidean_all</v>
+        <v>MLFS_s2cosine_all</v>
       </c>
       <c r="E16">
-        <v>47949</v>
+        <v>171790</v>
       </c>
       <c r="F16" s="2">
-        <v>14.660491983007301</v>
+        <v>1.5317539491410599</v>
       </c>
       <c r="G16" s="2">
-        <v>14.687716550169799</v>
+        <v>1.53330933009527</v>
       </c>
       <c r="H16" s="2">
-        <v>14.676056326866201</v>
+        <v>1.53255463271236</v>
       </c>
       <c r="I16" s="2">
-        <v>14.6755985520468</v>
+        <v>1.53253251277364</v>
       </c>
       <c r="J16" s="1">
-        <v>7.1994567114880598E-5</v>
+        <v>2.6778466155767601E-7</v>
       </c>
       <c r="K16" s="3">
-        <v>6629</v>
+        <v>28159</v>
       </c>
       <c r="L16" s="2">
-        <v>10.4389802383467</v>
+        <v>6.64441208849746</v>
       </c>
       <c r="M16" s="2">
-        <v>10.4389802383467</v>
+        <v>6.64441208849746</v>
       </c>
       <c r="N16" s="2">
-        <v>10.4389802383467</v>
+        <v>6.64441208849746</v>
       </c>
       <c r="O16" s="2">
-        <v>10.4389802383467</v>
+        <v>6.64441208849746</v>
       </c>
       <c r="P16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>LIBUTIL_s2euclidean_all</v>
+        <v>ESAIL_s2cosine_all</v>
       </c>
       <c r="E17">
-        <v>214016</v>
+        <v>39604457</v>
       </c>
       <c r="F17" s="2">
-        <v>2.1536983449432001</v>
+        <v>5.9743562563723396</v>
       </c>
       <c r="G17" s="2">
-        <v>2.27594922113982</v>
+        <v>6.4407273038717596</v>
       </c>
       <c r="H17" s="2">
-        <v>2.2193993656431901</v>
+        <v>6.2424149952694199</v>
       </c>
       <c r="I17" s="2">
-        <v>2.21582136985332</v>
-      </c>
-      <c r="J17" s="1">
-        <v>3.2365391035860799E-3</v>
-      </c>
-      <c r="K17" s="3">
-        <v>17672</v>
+        <v>6.2675309742569496</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="4">
+        <v>155751</v>
       </c>
       <c r="L17" s="2">
-        <v>4.8438207333635104</v>
+        <v>43.0514089797176</v>
       </c>
       <c r="M17" s="2">
-        <v>4.8721140787686696</v>
+        <v>43.274842537126602</v>
       </c>
       <c r="N17" s="2">
-        <v>4.8494794024445396</v>
+        <v>43.1977964828476</v>
       </c>
       <c r="O17" s="2">
-        <v>4.8511770031688499</v>
-      </c>
-      <c r="P17" s="1">
-        <v>8.5743879113773106E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+        <v>43.201969810787702</v>
+      </c>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -11841,288 +12006,276 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>MLFS_s2euclidean_all</v>
+        <v>LIBGSCSP_s2euclidean_all</v>
       </c>
       <c r="E18">
-        <v>171790</v>
+        <v>252776</v>
       </c>
       <c r="F18" s="2">
-        <v>0.70741368548151595</v>
+        <v>-0.21488556290771399</v>
       </c>
       <c r="G18" s="2">
-        <v>0.72968788166899201</v>
+        <v>-3.4990938846580402E-2</v>
       </c>
       <c r="H18" s="2">
-        <v>0.723895950346233</v>
+        <v>-8.2263855866242797E-2</v>
       </c>
       <c r="I18" s="2">
-        <v>0.72267696709166096</v>
+        <v>-9.8548929733958707E-2</v>
       </c>
       <c r="J18" s="1">
-        <v>4.7336999920996598E-5</v>
+        <v>3.8490039952342198E-3</v>
       </c>
       <c r="K18" s="3">
-        <v>28159</v>
+        <v>10250</v>
       </c>
       <c r="L18" s="2">
-        <v>5.4121240100855896</v>
+        <v>10.3707317073171</v>
       </c>
       <c r="M18" s="2">
-        <v>5.4618416847189204</v>
+        <v>10.3707317073171</v>
       </c>
       <c r="N18" s="2">
-        <v>5.45296352853439</v>
+        <v>10.3707317073171</v>
       </c>
       <c r="O18" s="2">
-        <v>5.4487020135658204</v>
+        <v>10.3707317073171</v>
       </c>
       <c r="P18" s="1">
-        <v>2.52369430548389E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>LIBGSCSP_s1jaccard_sampling</v>
+        <v>LIBPARAM_s2euclidean_all</v>
       </c>
       <c r="E19">
-        <v>252776</v>
+        <v>47949</v>
       </c>
       <c r="F19" s="2">
-        <v>89.009937103818103</v>
+        <v>14.660491983007301</v>
       </c>
       <c r="G19" s="2">
-        <v>90.721878944066404</v>
+        <v>14.687716550169799</v>
       </c>
       <c r="H19" s="2">
-        <v>89.738061279103604</v>
+        <v>14.676056326866201</v>
       </c>
       <c r="I19" s="2">
-        <v>89.874722873180602</v>
+        <v>14.6755985520468</v>
       </c>
       <c r="J19" s="1">
-        <v>0.31422745910196898</v>
+        <v>7.1994567114880598E-5</v>
       </c>
       <c r="K19" s="3">
-        <v>10250</v>
+        <v>6629</v>
       </c>
       <c r="L19" s="2">
-        <v>87.239024390243898</v>
+        <v>10.4389802383467</v>
       </c>
       <c r="M19" s="2">
-        <v>88.770731707317097</v>
+        <v>10.4389802383467</v>
       </c>
       <c r="N19" s="2">
-        <v>87.521951219512204</v>
+        <v>10.4389802383467</v>
       </c>
       <c r="O19" s="2">
-        <v>87.828292682926801</v>
+        <v>10.4389802383467</v>
       </c>
       <c r="P19" s="1">
-        <v>0.36112261220173197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>LIBPARAM_s1jaccard_sampling</v>
+        <v>LIBUTIL_s2euclidean_all</v>
       </c>
       <c r="E20">
-        <v>47949</v>
+        <v>214016</v>
       </c>
       <c r="F20" s="2">
-        <v>83.899632067920706</v>
+        <v>2.1536983449432001</v>
       </c>
       <c r="G20" s="2">
-        <v>87.926500926321395</v>
+        <v>2.27594922113982</v>
       </c>
       <c r="H20" s="2">
-        <v>85.815629283231601</v>
+        <v>2.2193993656431901</v>
       </c>
       <c r="I20" s="2">
-        <v>85.714874192530601</v>
+        <v>2.21582136985332</v>
       </c>
       <c r="J20" s="1">
-        <v>1.9079930610010001</v>
+        <v>3.2365391035860799E-3</v>
       </c>
       <c r="K20" s="3">
-        <v>6629</v>
+        <v>17672</v>
       </c>
       <c r="L20" s="2">
-        <v>79.559511238497507</v>
+        <v>4.8438207333635104</v>
       </c>
       <c r="M20" s="2">
-        <v>82.938603107557697</v>
+        <v>4.8721140787686696</v>
       </c>
       <c r="N20" s="2">
-        <v>81.233971941469306</v>
+        <v>4.8494794024445396</v>
       </c>
       <c r="O20" s="2">
-        <v>81.283753205611703</v>
+        <v>4.8511770031688499</v>
       </c>
       <c r="P20" s="1">
-        <v>1.16336134580503</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+        <v>8.5743879113773106E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>LIBUTIL_s1jaccard_sampling</v>
+        <v>MLFS_s2euclidean_all</v>
       </c>
       <c r="E21">
-        <v>214016</v>
+        <v>171790</v>
       </c>
       <c r="F21" s="2">
-        <v>92.667035585327994</v>
+        <v>0.70741368548151595</v>
       </c>
       <c r="G21" s="2">
-        <v>94.329952057613198</v>
+        <v>0.72968788166899201</v>
       </c>
       <c r="H21" s="2">
-        <v>93.460075515125595</v>
+        <v>0.723895950346233</v>
       </c>
       <c r="I21" s="2">
-        <v>93.460273630726604</v>
+        <v>0.72267696709166096</v>
       </c>
       <c r="J21" s="1">
-        <v>0.17286151885651699</v>
+        <v>4.7336999920996598E-5</v>
       </c>
       <c r="K21" s="3">
-        <v>17672</v>
+        <v>28159</v>
       </c>
       <c r="L21" s="2">
-        <v>84.772521502942496</v>
+        <v>5.4121240100855896</v>
       </c>
       <c r="M21" s="2">
-        <v>87.177455862381194</v>
+        <v>5.4618416847189204</v>
       </c>
       <c r="N21" s="2">
-        <v>86.090991398822993</v>
+        <v>5.45296352853439</v>
       </c>
       <c r="O21" s="2">
-        <v>86.077410593028503</v>
+        <v>5.4487020135658204</v>
       </c>
       <c r="P21" s="1">
-        <v>0.417470937137078</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+        <v>2.52369430548389E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>MLFS_s1jaccard_sampling</v>
+        <v>ESAIL_s2euclidean_all</v>
       </c>
       <c r="E22">
-        <v>171790</v>
+        <v>39604457</v>
       </c>
       <c r="F22" s="2">
-        <v>86.659254236394702</v>
+        <v>-4.0131076073561198</v>
       </c>
       <c r="G22" s="2">
-        <v>88.315161580535005</v>
+        <v>-3.73581694792203</v>
       </c>
       <c r="H22" s="2">
-        <v>87.875443102392197</v>
+        <v>-3.94111527579869</v>
       </c>
       <c r="I22" s="2">
-        <v>87.739488196192397</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.35618350066412802</v>
-      </c>
-      <c r="K22" s="3">
-        <v>28159</v>
+        <v>-3.8854819575685999</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="4">
+        <v>155751</v>
       </c>
       <c r="L22" s="2">
-        <v>81.320359387762394</v>
+        <v>38.603283446013201</v>
       </c>
       <c r="M22" s="2">
-        <v>83.614474945843199</v>
+        <v>38.830569306136098</v>
       </c>
       <c r="N22" s="2">
-        <v>83.099541887140902</v>
+        <v>38.761869907737299</v>
       </c>
       <c r="O22" s="2">
-        <v>82.8278703078945</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0.65917676150939297</v>
-      </c>
-      <c r="Q22" s="2">
-        <f>AVERAGE(I19:I22)</f>
-        <v>89.19733972315754</v>
-      </c>
-      <c r="R22" s="2">
-        <f>AVERAGE(O19:O22)</f>
-        <v>84.504331697365373</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+        <v>38.726878158085697</v>
+      </c>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>LIBGSCSP_s1ochiai_sampling</v>
+        <v>LIBGSCSP_s1jaccard_sampling</v>
       </c>
       <c r="E23">
         <v>252776</v>
       </c>
       <c r="F23" s="2">
-        <v>89.013727007538293</v>
+        <v>89.009937103818103</v>
       </c>
       <c r="G23" s="2">
-        <v>90.734214724630505</v>
+        <v>90.721878944066404</v>
       </c>
       <c r="H23" s="2">
-        <v>89.737159495645301</v>
+        <v>89.738061279103604</v>
       </c>
       <c r="I23" s="2">
-        <v>89.8795321739683</v>
+        <v>89.874722873180602</v>
       </c>
       <c r="J23" s="1">
-        <v>0.31564675384190899</v>
+        <v>0.31422745910196898</v>
       </c>
       <c r="K23" s="3">
         <v>10250</v>
@@ -12131,49 +12284,49 @@
         <v>87.239024390243898</v>
       </c>
       <c r="M23" s="2">
-        <v>88.731707317073202</v>
+        <v>88.770731707317097</v>
       </c>
       <c r="N23" s="2">
         <v>87.521951219512204</v>
       </c>
       <c r="O23" s="2">
-        <v>87.826341463414593</v>
+        <v>87.828292682926801</v>
       </c>
       <c r="P23" s="1">
-        <v>0.35094031330557302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0.36112261220173197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>LIBPARAM_s1ochiai_sampling</v>
+        <v>LIBPARAM_s1jaccard_sampling</v>
       </c>
       <c r="E24">
         <v>47949</v>
       </c>
       <c r="F24" s="2">
-        <v>83.899663350937999</v>
+        <v>83.899632067920706</v>
       </c>
       <c r="G24" s="2">
-        <v>87.926444616890294</v>
+        <v>87.926500926321395</v>
       </c>
       <c r="H24" s="2">
-        <v>85.818190319578804</v>
+        <v>85.815629283231601</v>
       </c>
       <c r="I24" s="2">
-        <v>85.715458350739695</v>
+        <v>85.714874192530601</v>
       </c>
       <c r="J24" s="1">
-        <v>1.9080348405432701</v>
+        <v>1.9079930610010001</v>
       </c>
       <c r="K24" s="3">
         <v>6629</v>
@@ -12194,19 +12347,19 @@
         <v>1.16336134580503</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>LIBUTIL_s1ochiai_sampling</v>
+        <v>LIBUTIL_s1jaccard_sampling</v>
       </c>
       <c r="E25">
         <v>214016</v>
@@ -12215,16 +12368,16 @@
         <v>92.667035585327994</v>
       </c>
       <c r="G25" s="2">
-        <v>94.335183430889501</v>
+        <v>94.329952057613198</v>
       </c>
       <c r="H25" s="2">
-        <v>93.457709108376903</v>
+        <v>93.460075515125595</v>
       </c>
       <c r="I25" s="2">
-        <v>93.460812280879594</v>
+        <v>93.460273630726604</v>
       </c>
       <c r="J25" s="1">
-        <v>0.173694479659708</v>
+        <v>0.17286151885651699</v>
       </c>
       <c r="K25" s="3">
         <v>17672</v>
@@ -12245,37 +12398,37 @@
         <v>0.417470937137078</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>MLFS_s1ochiai_sampling</v>
+        <v>MLFS_s1jaccard_sampling</v>
       </c>
       <c r="E26">
         <v>171790</v>
       </c>
       <c r="F26" s="2">
-        <v>86.659240265907002</v>
+        <v>86.659254236394702</v>
       </c>
       <c r="G26" s="2">
-        <v>88.316924190388804</v>
+        <v>88.315161580535005</v>
       </c>
       <c r="H26" s="2">
-        <v>87.875392459374595</v>
+        <v>87.875443102392197</v>
       </c>
       <c r="I26" s="2">
-        <v>87.739804744157595</v>
+        <v>87.739488196192397</v>
       </c>
       <c r="J26" s="1">
-        <v>0.355780123810644</v>
+        <v>0.35618350066412802</v>
       </c>
       <c r="K26" s="3">
         <v>28159</v>
@@ -12284,868 +12437,903 @@
         <v>81.320359387762394</v>
       </c>
       <c r="M26" s="2">
-        <v>83.618026208317005</v>
+        <v>83.614474945843199</v>
       </c>
       <c r="N26" s="2">
         <v>83.099541887140902</v>
       </c>
       <c r="O26" s="2">
-        <v>82.828580560389199</v>
+        <v>82.8278703078945</v>
       </c>
       <c r="P26" s="1">
-        <v>0.65815607359594597</v>
+        <v>0.65917676150939297</v>
       </c>
       <c r="Q26" s="2">
-        <f>AVERAGE(I23:I26)</f>
-        <v>89.198901887436307</v>
+        <f>AVERAGE(F23:F26)</f>
+        <v>88.058964748365369</v>
       </c>
       <c r="R26" s="2">
         <f>AVERAGE(O23:O26)</f>
-        <v>84.504021455610996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+        <v>84.504331697365373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="str">
+        <f t="shared" ref="D27" si="1">A27&amp;"_"&amp;B27&amp;"_"&amp;C27</f>
+        <v>ESAIL_s1jaccard_sampling</v>
+      </c>
+      <c r="E27">
+        <v>39604457</v>
+      </c>
+      <c r="F27" s="2">
+        <v>93.126710729757306</v>
+      </c>
+      <c r="G27" s="2">
+        <v>94.0573869890856</v>
+      </c>
+      <c r="H27" s="2">
+        <v>93.539676584764706</v>
+      </c>
+      <c r="I27" s="2">
+        <v>93.6484839856398</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="4">
+        <v>155751</v>
+      </c>
+      <c r="L27" s="2">
+        <v>96.168884950979404</v>
+      </c>
+      <c r="M27" s="2">
+        <v>97.177546211581301</v>
+      </c>
+      <c r="N27" s="2">
+        <v>96.580118265693301</v>
+      </c>
+      <c r="O27" s="2">
+        <v>96.578641549653</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>LIBGSCSP_s1ochiai_sampling</v>
+      </c>
+      <c r="E28">
+        <v>252776</v>
+      </c>
+      <c r="F28" s="2">
+        <v>89.013727007538293</v>
+      </c>
+      <c r="G28" s="2">
+        <v>90.734214724630505</v>
+      </c>
+      <c r="H28" s="2">
+        <v>89.737159495645301</v>
+      </c>
+      <c r="I28" s="2">
+        <v>89.8795321739683</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.31564675384190899</v>
+      </c>
+      <c r="K28" s="3">
+        <v>10250</v>
+      </c>
+      <c r="L28" s="2">
+        <v>87.239024390243898</v>
+      </c>
+      <c r="M28" s="2">
+        <v>88.731707317073202</v>
+      </c>
+      <c r="N28" s="2">
+        <v>87.521951219512204</v>
+      </c>
+      <c r="O28" s="2">
+        <v>87.826341463414593</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.35094031330557302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>LIBPARAM_s1ochiai_sampling</v>
+      </c>
+      <c r="E29">
+        <v>47949</v>
+      </c>
+      <c r="F29" s="2">
+        <v>83.899663350937999</v>
+      </c>
+      <c r="G29" s="2">
+        <v>87.926444616890294</v>
+      </c>
+      <c r="H29" s="2">
+        <v>85.818190319578804</v>
+      </c>
+      <c r="I29" s="2">
+        <v>85.715458350739695</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1.9080348405432701</v>
+      </c>
+      <c r="K29" s="3">
+        <v>6629</v>
+      </c>
+      <c r="L29" s="2">
+        <v>79.559511238497507</v>
+      </c>
+      <c r="M29" s="2">
+        <v>82.938603107557697</v>
+      </c>
+      <c r="N29" s="2">
+        <v>81.233971941469306</v>
+      </c>
+      <c r="O29" s="2">
+        <v>81.283753205611703</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1.16336134580503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>LIBUTIL_s1ochiai_sampling</v>
+      </c>
+      <c r="E30">
+        <v>214016</v>
+      </c>
+      <c r="F30" s="2">
+        <v>92.667035585327994</v>
+      </c>
+      <c r="G30" s="2">
+        <v>94.335183430889501</v>
+      </c>
+      <c r="H30" s="2">
+        <v>93.457709108376903</v>
+      </c>
+      <c r="I30" s="2">
+        <v>93.460812280879594</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.173694479659708</v>
+      </c>
+      <c r="K30" s="3">
+        <v>17672</v>
+      </c>
+      <c r="L30" s="2">
+        <v>84.772521502942496</v>
+      </c>
+      <c r="M30" s="2">
+        <v>87.177455862381194</v>
+      </c>
+      <c r="N30" s="2">
+        <v>86.090991398822993</v>
+      </c>
+      <c r="O30" s="2">
+        <v>86.077410593028503</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.417470937137078</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>MLFS_s1ochiai_sampling</v>
+      </c>
+      <c r="E31">
+        <v>171790</v>
+      </c>
+      <c r="F31" s="2">
+        <v>86.659240265907002</v>
+      </c>
+      <c r="G31" s="2">
+        <v>88.316924190388804</v>
+      </c>
+      <c r="H31" s="2">
+        <v>87.875392459374595</v>
+      </c>
+      <c r="I31" s="2">
+        <v>87.739804744157595</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.355780123810644</v>
+      </c>
+      <c r="K31" s="3">
+        <v>28159</v>
+      </c>
+      <c r="L31" s="2">
+        <v>81.320359387762394</v>
+      </c>
+      <c r="M31" s="2">
+        <v>83.618026208317005</v>
+      </c>
+      <c r="N31" s="2">
+        <v>83.099541887140902</v>
+      </c>
+      <c r="O31" s="2">
+        <v>82.828580560389199</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.65815607359594597</v>
+      </c>
+      <c r="Q31" s="2">
+        <f>AVERAGE(F28:F31)</f>
+        <v>88.059916552427822</v>
+      </c>
+      <c r="R31" s="2">
+        <f>AVERAGE(O28:O31)</f>
+        <v>84.504021455610996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" ref="D32" si="2">A32&amp;"_"&amp;B32&amp;"_"&amp;C32</f>
+        <v>ESAIL_s1ochiai_sampling</v>
+      </c>
+      <c r="E32">
+        <v>39604457</v>
+      </c>
+      <c r="F32" s="2">
+        <v>93.121129812438795</v>
+      </c>
+      <c r="G32" s="2">
+        <v>94.055381916778003</v>
+      </c>
+      <c r="H32" s="2">
+        <v>93.541932266492296</v>
+      </c>
+      <c r="I32" s="2">
+        <v>93.645610021732693</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="4">
+        <v>155751</v>
+      </c>
+      <c r="L32" s="2">
+        <v>96.168884950979404</v>
+      </c>
+      <c r="M32" s="2">
+        <v>97.177546211581301</v>
+      </c>
+      <c r="N32" s="2">
+        <v>96.579797240467201</v>
+      </c>
+      <c r="O32" s="2">
+        <v>96.578705754698206</v>
+      </c>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="str">
         <f t="shared" si="0"/>
         <v>LIBGSCSP_s2cosine_sampling</v>
       </c>
-      <c r="E27">
+      <c r="E33">
         <v>252776</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F33" s="2">
         <v>88.147866535415204</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G33" s="2">
         <v>90.078491754407807</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H33" s="2">
         <v>89.136883845424606</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I33" s="2">
         <v>89.145769389422398</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J33" s="1">
         <v>0.42308133994310698</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K33" s="3">
         <v>10250</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L33" s="2">
         <v>85.492682926829303</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M33" s="2">
         <v>87.853658536585399</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N33" s="2">
         <v>86.068292682926796</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O33" s="2">
         <v>86.469268292682898</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P33" s="1">
         <v>0.673830656355345</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>20</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B34" t="s">
         <v>2</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C34" t="s">
         <v>6</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D34" t="str">
         <f t="shared" si="0"/>
         <v>LIBPARAM_s2cosine_sampling</v>
       </c>
-      <c r="E28">
+      <c r="E34">
         <v>47949</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F34" s="2">
         <v>83.763757410712202</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G34" s="2">
         <v>87.861968232763303</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H34" s="2">
         <v>85.678375044961498</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I34" s="2">
         <v>85.590859761382703</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J34" s="1">
         <v>1.9433560883913199</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K34" s="3">
         <v>6629</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L34" s="2">
         <v>79.287977070447994</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M34" s="2">
         <v>82.802836023533004</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N34" s="2">
         <v>81.052949162769707</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O34" s="2">
         <v>81.077085533262903</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P34" s="1">
         <v>1.25869305084564</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>18</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B35" t="s">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C35" t="s">
         <v>6</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D35" t="str">
         <f t="shared" si="0"/>
         <v>LIBUTIL_s2cosine_sampling</v>
       </c>
-      <c r="E29">
+      <c r="E35">
         <v>214016</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F35" s="2">
         <v>92.646569402684506</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G35" s="2">
         <v>94.272209303226404</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H35" s="2">
         <v>93.429105000343398</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I35" s="2">
         <v>93.424862102430197</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J35" s="1">
         <v>0.16525906027248699</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K35" s="3">
         <v>17672</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L35" s="2">
         <v>84.704617473970103</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M35" s="2">
         <v>87.013354459031206</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N35" s="2">
         <v>86.014599366229106</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O35" s="2">
         <v>85.993662290629203</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P35" s="1">
         <v>0.40408350691594602</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>19</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B36" t="s">
         <v>2</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C36" t="s">
         <v>6</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D36" t="str">
         <f t="shared" si="0"/>
         <v>MLFS_s2cosine_sampling</v>
       </c>
-      <c r="E30">
+      <c r="E36">
         <v>171790</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F36" s="2">
         <v>86.574263610795597</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G36" s="2">
         <v>88.265655411368598</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H36" s="2">
         <v>87.820329237708293</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I36" s="2">
         <v>87.688555174557706</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J36" s="1">
         <v>0.36570037273371803</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K36" s="3">
         <v>28159</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L36" s="2">
         <v>81.235129088390906</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M36" s="2">
         <v>83.525693383998004</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N36" s="2">
         <v>83.035619162612306</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O36" s="2">
         <v>82.767853972087096</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P36" s="1">
         <v>0.67119114385575596</v>
       </c>
-      <c r="Q30" s="2">
-        <f>AVERAGE(I27:I30)</f>
-        <v>88.962511606948254</v>
-      </c>
-      <c r="R30" s="2">
-        <f>AVERAGE(O27:O30)</f>
+      <c r="Q36" s="2">
+        <f>AVERAGE(F33:F36)</f>
+        <v>87.783114239901877</v>
+      </c>
+      <c r="R36" s="2">
+        <f>AVERAGE(O33:O36)</f>
         <v>84.076967522165518</v>
       </c>
-      <c r="S30">
-        <f>SUM(E27:E30)</f>
-        <v>686531</v>
-      </c>
-      <c r="T30">
-        <f>(Q26-Q30)*S30/100</f>
-        <v>1622.8925565374313</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" ref="D37" si="3">A37&amp;"_"&amp;B37&amp;"_"&amp;C37</f>
+        <v>ESAIL_s2cosine_sampling</v>
+      </c>
+      <c r="E37">
+        <v>39604457</v>
+      </c>
+      <c r="F37" s="2">
+        <v>89.5750826396376</v>
+      </c>
+      <c r="G37" s="2">
+        <v>90.649785774501396</v>
+      </c>
+      <c r="H37" s="2">
+        <v>89.959532035000095</v>
+      </c>
+      <c r="I37" s="2">
+        <v>90.015878712840006</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="4">
+        <v>155751</v>
+      </c>
+      <c r="L37" s="2">
+        <v>92.419310309404096</v>
+      </c>
+      <c r="M37" s="2">
+        <v>93.069707417608896</v>
+      </c>
+      <c r="N37" s="2">
+        <v>92.693786877772894</v>
+      </c>
+      <c r="O37" s="2">
+        <v>92.749324241898904</v>
+      </c>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>17</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B38" t="s">
         <v>3</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C38" t="s">
         <v>6</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D38" t="str">
         <f t="shared" si="0"/>
         <v>LIBGSCSP_s2euclidean_sampling</v>
       </c>
-      <c r="E31">
+      <c r="E38">
         <v>252776</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F38" s="2">
         <v>88.127770946764201</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G38" s="2">
         <v>90.140208239780804</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H38" s="2">
         <v>89.146695067471995</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I38" s="2">
         <v>89.154082056637506</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J38" s="1">
         <v>0.437811189886329</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K38" s="3">
         <v>10250</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L38" s="2">
         <v>85.648780487804899</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M38" s="2">
         <v>87.921951219512195</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N38" s="2">
         <v>86.151219512195098</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O38" s="2">
         <v>86.537560975609793</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P38" s="1">
         <v>0.67230775332143899</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>20</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B39" t="s">
         <v>3</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C39" t="s">
         <v>6</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D39" t="str">
         <f t="shared" si="0"/>
         <v>LIBPARAM_s2euclidean_sampling</v>
       </c>
-      <c r="E32">
+      <c r="E39">
         <v>47949</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F39" s="2">
         <v>83.691614601819595</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G39" s="2">
         <v>87.848101513974996</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H39" s="2">
         <v>85.662996313671798</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I39" s="2">
         <v>85.560238901312104</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J39" s="1">
         <v>1.9653910638792</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K39" s="3">
         <v>6629</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L39" s="2">
         <v>79.197465681098194</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M39" s="2">
         <v>82.757580328858097</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N39" s="2">
         <v>80.992608236536398</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O39" s="2">
         <v>81.010710514406398</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P39" s="1">
         <v>1.2518964664054399</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>18</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B40" t="s">
         <v>3</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C40" t="s">
         <v>6</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D40" t="str">
         <f t="shared" si="0"/>
         <v>LIBUTIL_s2euclidean_sampling</v>
       </c>
-      <c r="E33">
+      <c r="E40">
         <v>214016</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F40" s="2">
         <v>92.646275500059403</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G40" s="2">
         <v>94.272277522277705</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H40" s="2">
         <v>93.428859458484098</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I40" s="2">
         <v>93.425029706359695</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J40" s="1">
         <v>0.165250902706264</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K40" s="3">
         <v>17672</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L40" s="2">
         <v>84.704617473970103</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M40" s="2">
         <v>87.013354459031206</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N40" s="2">
         <v>86.014599366229106</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O40" s="2">
         <v>85.995359891353601</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P40" s="1">
         <v>0.404394106112903</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>19</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D41" t="str">
         <f t="shared" si="0"/>
         <v>MLFS_s2euclidean_sampling</v>
       </c>
-      <c r="E34">
+      <c r="E41">
         <v>171790</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F41" s="2">
         <v>86.572775753864804</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G41" s="2">
         <v>88.2658236393235</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H41" s="2">
         <v>87.812041245932093</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I41" s="2">
         <v>87.680894632306405</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J41" s="1">
         <v>0.365089050465075</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K41" s="3">
         <v>28159</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L41" s="2">
         <v>81.2315778259171</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M41" s="2">
         <v>83.525693383998004</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N41" s="2">
         <v>83.021414112717096</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O41" s="2">
         <v>82.756845058418307</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P41" s="1">
         <v>0.66887918203753105</v>
       </c>
-      <c r="Q34" s="2">
-        <f>AVERAGE(I31:I34)</f>
-        <v>88.955061324153917</v>
-      </c>
-      <c r="R34" s="2">
-        <f>AVERAGE(O31:O34)</f>
+      <c r="Q41" s="2">
+        <f>AVERAGE(F38:F41)</f>
+        <v>87.759609200626997</v>
+      </c>
+      <c r="R41" s="2">
+        <f>AVERAGE(O38:O41)</f>
         <v>84.075119109947025</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>252776</v>
-      </c>
-      <c r="F35" s="2">
-        <v>82.242801492341243</v>
-      </c>
-      <c r="G35" s="2">
-        <v>82.490419870551648</v>
-      </c>
-      <c r="H35" s="2">
-        <v>82.443346621167919</v>
-      </c>
-      <c r="I35" s="2">
-        <v>82.412684763609121</v>
-      </c>
-      <c r="K35">
-        <v>10250</v>
-      </c>
-      <c r="L35" s="2">
-        <v>99.791304734156768</v>
-      </c>
-      <c r="M35" s="2">
-        <v>99.791304734156768</v>
-      </c>
-      <c r="N35" s="2">
-        <v>99.791304734156768</v>
-      </c>
-      <c r="O35" s="2">
-        <v>99.791304734156768</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>47949</v>
-      </c>
-      <c r="F36" s="2">
-        <v>87.457495915673519</v>
-      </c>
-      <c r="G36" s="2">
-        <v>87.457969331985979</v>
-      </c>
-      <c r="H36" s="2">
-        <v>87.457778505586916</v>
-      </c>
-      <c r="I36" s="2">
-        <v>87.457778088480026</v>
-      </c>
-      <c r="K36">
-        <v>6629</v>
-      </c>
-      <c r="L36" s="2">
-        <v>99.820657133286431</v>
-      </c>
-      <c r="M36" s="2">
-        <v>99.820657133286431</v>
-      </c>
-      <c r="N36" s="2">
-        <v>99.820657133286431</v>
-      </c>
-      <c r="O36" s="2">
-        <v>99.820657133286431</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>214016</v>
-      </c>
-      <c r="F37" s="2">
-        <v>83.166874322043029</v>
-      </c>
-      <c r="G37" s="2">
-        <v>83.376570981122171</v>
-      </c>
-      <c r="H37" s="2">
-        <v>83.323099839918086</v>
-      </c>
-      <c r="I37" s="2">
-        <v>83.312192034558848</v>
-      </c>
-      <c r="K37">
-        <v>17672</v>
-      </c>
-      <c r="L37" s="2">
-        <v>99.941326710021087</v>
-      </c>
-      <c r="M37" s="2">
-        <v>99.94145836287818</v>
-      </c>
-      <c r="N37" s="2">
-        <v>99.941348652163924</v>
-      </c>
-      <c r="O37" s="2">
-        <v>99.941370594306775</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38">
-        <v>171790</v>
-      </c>
-      <c r="F38" s="2">
-        <v>92.779146113786311</v>
-      </c>
-      <c r="G38" s="2">
-        <v>92.782507652951693</v>
-      </c>
-      <c r="H38" s="2">
-        <v>92.780809129785524</v>
-      </c>
-      <c r="I38" s="2">
-        <v>92.78095110024482</v>
-      </c>
-      <c r="K38">
-        <v>28159</v>
-      </c>
-      <c r="L38" s="2">
-        <v>99.958963189191536</v>
-      </c>
-      <c r="M38" s="2">
-        <v>99.958984518095278</v>
-      </c>
-      <c r="N38" s="2">
-        <v>99.958984518095278</v>
-      </c>
-      <c r="O38" s="2">
-        <v>99.958975986533787</v>
-      </c>
-      <c r="Q38" s="2">
-        <f>AVERAGE(I35:I38)</f>
-        <v>86.490901496723197</v>
-      </c>
-      <c r="R38" s="2">
-        <f>AVERAGE(O35:O38)</f>
-        <v>99.87807711207094</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39">
-        <v>252776</v>
-      </c>
-      <c r="F39" s="2">
-        <v>82.287801797100371</v>
-      </c>
-      <c r="G39" s="2">
-        <v>82.48264791060987</v>
-      </c>
-      <c r="H39" s="2">
-        <v>82.461637192679078</v>
-      </c>
-      <c r="I39" s="2">
-        <v>82.435375318326052</v>
-      </c>
-      <c r="K39">
-        <v>10250</v>
-      </c>
-      <c r="L39" s="2">
-        <v>99.791304734156768</v>
-      </c>
-      <c r="M39" s="2">
-        <v>99.791304734156768</v>
-      </c>
-      <c r="N39" s="2">
-        <v>99.791304734156768</v>
-      </c>
-      <c r="O39" s="2">
-        <v>99.791304734156768</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40">
-        <v>47949</v>
-      </c>
-      <c r="F40" s="2">
-        <v>87.457568909378097</v>
-      </c>
-      <c r="G40" s="2">
-        <v>87.458109062791877</v>
-      </c>
-      <c r="H40" s="2">
-        <v>87.457898423815863</v>
-      </c>
-      <c r="I40" s="2">
-        <v>87.457850456524284</v>
-      </c>
-      <c r="K40">
-        <v>6629</v>
-      </c>
-      <c r="L40" s="2">
-        <v>99.820657133286431</v>
-      </c>
-      <c r="M40" s="2">
-        <v>99.820657133286431</v>
-      </c>
-      <c r="N40" s="2">
-        <v>99.820657133286431</v>
-      </c>
-      <c r="O40" s="2">
-        <v>99.820657133286431</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41">
-        <v>214016</v>
-      </c>
-      <c r="F41" s="2">
-        <v>83.264177833118751</v>
-      </c>
-      <c r="G41" s="2">
-        <v>83.379280060388524</v>
-      </c>
-      <c r="H41" s="2">
-        <v>83.324913446536286</v>
-      </c>
-      <c r="I41" s="2">
-        <v>83.323486811192382</v>
-      </c>
-      <c r="K41">
-        <v>17672</v>
-      </c>
-      <c r="L41" s="2">
-        <v>99.941326710021087</v>
-      </c>
-      <c r="M41" s="2">
-        <v>99.941414478592478</v>
-      </c>
-      <c r="N41" s="2">
-        <v>99.941348652163924</v>
-      </c>
-      <c r="O41" s="2">
-        <v>99.941357429021068</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" ref="D42" si="4">A42&amp;"_"&amp;B42&amp;"_"&amp;C42</f>
+        <v>ESAIL_s2euclidean_sampling</v>
       </c>
       <c r="E42">
-        <v>171790</v>
+        <v>39604457</v>
       </c>
       <c r="F42" s="2">
-        <v>92.77927126199765</v>
+        <v>88.753369151828693</v>
       </c>
       <c r="G42" s="2">
-        <v>92.781709032737851</v>
+        <v>90.257194238724196</v>
       </c>
       <c r="H42" s="2">
-        <v>92.780509938247675</v>
+        <v>89.242559064130106</v>
       </c>
       <c r="I42" s="2">
-        <v>92.780362496192168</v>
-      </c>
-      <c r="K42">
-        <v>28159</v>
+        <v>89.291389697501998</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="4">
+        <v>155751</v>
       </c>
       <c r="L42" s="2">
-        <v>99.958963189191536</v>
+        <v>92.244672586371806</v>
       </c>
       <c r="M42" s="2">
-        <v>99.958984518095278</v>
+        <v>93.011922876899703</v>
       </c>
       <c r="N42" s="2">
-        <v>99.958963189191536</v>
+        <v>92.401653921965206</v>
       </c>
       <c r="O42" s="2">
-        <v>99.958971720753027</v>
-      </c>
-      <c r="Q42" s="2">
-        <f>AVERAGE(I39:I42)</f>
-        <v>86.499268770558729</v>
-      </c>
-      <c r="R42" s="2">
-        <f>AVERAGE(O39:O42)</f>
-        <v>99.878072754304327</v>
-      </c>
+        <v>92.510417268588995</v>
+      </c>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E43">
         <v>252776</v>
       </c>
       <c r="F43" s="2">
-        <v>79.067701485245195</v>
+        <v>82.242801492341243</v>
       </c>
       <c r="G43" s="2">
-        <v>79.288245782497853</v>
+        <v>82.490419870551648</v>
       </c>
       <c r="H43" s="2">
-        <v>79.255107151712778</v>
+        <v>82.443346621167919</v>
       </c>
       <c r="I43" s="2">
-        <v>79.212173976256508</v>
+        <v>82.412684763609121</v>
       </c>
       <c r="K43">
         <v>10250</v>
       </c>
       <c r="L43" s="2">
-        <v>99.956655096352492</v>
+        <v>85.843902439024404</v>
       </c>
       <c r="M43" s="2">
-        <v>99.956676714758302</v>
+        <v>85.843902439024404</v>
       </c>
       <c r="N43" s="2">
-        <v>99.956665905555383</v>
+        <v>85.843902439024404</v>
       </c>
       <c r="O43" s="2">
-        <v>99.956665905555383</v>
+        <v>85.843902439024404</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -13153,43 +13341,46 @@
         <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E44">
         <v>47949</v>
       </c>
       <c r="F44" s="2">
-        <v>87.137691726164746</v>
+        <v>87.457495915673519</v>
       </c>
       <c r="G44" s="2">
-        <v>87.14064275736358</v>
+        <v>87.457969331985979</v>
       </c>
       <c r="H44" s="2">
-        <v>87.139948274402997</v>
+        <v>87.457778505586916</v>
       </c>
       <c r="I44" s="2">
-        <v>87.139534712928295</v>
+        <v>87.457778088480026</v>
       </c>
       <c r="K44">
         <v>6629</v>
       </c>
       <c r="L44" s="2">
-        <v>99.855656392550742</v>
+        <v>83.496756675214996</v>
       </c>
       <c r="M44" s="2">
-        <v>99.855656392550742</v>
+        <v>83.496756675214996</v>
       </c>
       <c r="N44" s="2">
-        <v>99.855656392550742</v>
+        <v>83.496756675214996</v>
       </c>
       <c r="O44" s="2">
-        <v>99.855656392550742</v>
+        <v>83.496756675214996</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
@@ -13197,43 +13388,46 @@
         <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E45">
         <v>214016</v>
       </c>
       <c r="F45" s="2">
-        <v>82.820013587519028</v>
+        <v>83.166874322043029</v>
       </c>
       <c r="G45" s="2">
-        <v>83.034767225711605</v>
+        <v>83.376570981122171</v>
       </c>
       <c r="H45" s="2">
-        <v>82.980580500703383</v>
+        <v>83.323099839918086</v>
       </c>
       <c r="I45" s="2">
-        <v>82.948420767486439</v>
+        <v>83.312192034558848</v>
       </c>
       <c r="K45">
         <v>17672</v>
       </c>
       <c r="L45" s="2">
-        <v>99.962857129515754</v>
+        <v>84.868718877320106</v>
       </c>
       <c r="M45" s="2">
-        <v>99.962949459094375</v>
+        <v>84.902670891806196</v>
       </c>
       <c r="N45" s="2">
-        <v>99.962870319455561</v>
+        <v>84.874377546401107</v>
       </c>
       <c r="O45" s="2">
-        <v>99.962894061347214</v>
+        <v>84.880036215482093</v>
+      </c>
+      <c r="P45" s="1">
+        <v>1.7077619076584399E-4</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
@@ -13241,239 +13435,4406 @@
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E46">
         <v>171790</v>
       </c>
       <c r="F46" s="2">
-        <v>92.438102103649683</v>
+        <v>92.779146113786311</v>
       </c>
       <c r="G46" s="2">
-        <v>92.439287810191644</v>
+        <v>92.782507652951693</v>
       </c>
       <c r="H46" s="2">
-        <v>92.439053521098288</v>
+        <v>92.780809129785524</v>
       </c>
       <c r="I46" s="2">
-        <v>92.438814284284959</v>
+        <v>92.78095110024482</v>
       </c>
       <c r="K46">
         <v>28159</v>
       </c>
       <c r="L46" s="2">
-        <v>99.971810467014819</v>
+        <v>93.167371000390602</v>
       </c>
       <c r="M46" s="2">
-        <v>99.971810467014819</v>
+        <v>93.170922262864494</v>
       </c>
       <c r="N46" s="2">
-        <v>99.971810467014819</v>
+        <v>93.170922262864494</v>
       </c>
       <c r="O46" s="2">
-        <v>99.971810467014819</v>
+        <v>93.169501757874897</v>
+      </c>
+      <c r="P46" s="1">
+        <v>3.3630573754302598E-6</v>
       </c>
       <c r="Q46" s="2">
-        <f>AVERAGE(I43:I46)</f>
-        <v>85.434735935239047</v>
+        <f>AVERAGE(F43:F46)</f>
+        <v>86.411579460961036</v>
       </c>
       <c r="R46" s="2">
         <f>AVERAGE(O43:O46)</f>
-        <v>99.936756706617047</v>
+        <v>86.847549271899098</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E47">
-        <v>252776</v>
+        <v>39604457</v>
       </c>
       <c r="F47" s="2">
-        <v>79.307461267087717</v>
+        <v>90.839800241778903</v>
       </c>
       <c r="G47" s="2">
-        <v>79.371423476760299</v>
+        <v>90.873096400839103</v>
       </c>
       <c r="H47" s="2">
-        <v>79.340565876262531</v>
+        <v>90.848589166720799</v>
       </c>
       <c r="I47" s="2">
-        <v>79.34400910058001</v>
-      </c>
-      <c r="K47">
-        <v>10250</v>
+        <v>90.853713454120197</v>
+      </c>
+      <c r="K47" s="4">
+        <v>155751</v>
       </c>
       <c r="L47" s="2">
-        <v>99.943012999902962</v>
+        <v>98.355708791596797</v>
       </c>
       <c r="M47" s="2">
-        <v>99.943012999902962</v>
+        <v>98.364055447477099</v>
       </c>
       <c r="N47" s="2">
-        <v>99.943012999902962</v>
+        <v>98.359240069084606</v>
       </c>
       <c r="O47" s="2">
-        <v>99.943012999902962</v>
-      </c>
+        <v>98.359111658994195</v>
+      </c>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E48">
-        <v>47949</v>
+        <v>252776</v>
       </c>
       <c r="F48" s="2">
-        <v>87.207676004567205</v>
+        <v>82.287801797100371</v>
       </c>
       <c r="G48" s="2">
-        <v>87.209947151546373</v>
+        <v>82.48264791060987</v>
       </c>
       <c r="H48" s="2">
-        <v>87.20951544592225</v>
+        <v>82.461637192679078</v>
       </c>
       <c r="I48" s="2">
-        <v>87.209093542309859</v>
+        <v>82.435375318326052</v>
       </c>
       <c r="K48">
-        <v>6629</v>
+        <v>10250</v>
       </c>
       <c r="L48" s="2">
-        <v>99.850086412475108</v>
+        <v>85.843902439024404</v>
       </c>
       <c r="M48" s="2">
-        <v>99.850086412475108</v>
+        <v>85.843902439024404</v>
       </c>
       <c r="N48" s="2">
-        <v>99.850086412475108</v>
+        <v>85.843902439024404</v>
       </c>
       <c r="O48" s="2">
-        <v>99.850086412475108</v>
+        <v>85.843902439024404</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E49">
-        <v>214016</v>
+        <v>47949</v>
       </c>
       <c r="F49" s="2">
-        <v>82.927607207715624</v>
+        <v>87.457568909378097</v>
       </c>
       <c r="G49" s="2">
-        <v>83.040090533762921</v>
+        <v>87.458109062791877</v>
       </c>
       <c r="H49" s="2">
-        <v>82.984179212070984</v>
+        <v>87.457898423815863</v>
       </c>
       <c r="I49" s="2">
-        <v>82.983507315557532</v>
+        <v>87.457850456524284</v>
       </c>
       <c r="K49">
-        <v>17672</v>
+        <v>6629</v>
       </c>
       <c r="L49" s="2">
-        <v>99.962376559606213</v>
+        <v>83.496756675214996</v>
       </c>
       <c r="M49" s="2">
-        <v>99.962443433833727</v>
+        <v>83.496756675214996</v>
       </c>
       <c r="N49" s="2">
-        <v>99.962389934451707</v>
+        <v>83.496756675214996</v>
       </c>
       <c r="O49" s="2">
-        <v>99.962393946905365</v>
+        <v>83.496756675214996</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
       </c>
       <c r="D50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50">
+        <v>214016</v>
+      </c>
+      <c r="F50" s="2">
+        <v>83.264177833118751</v>
+      </c>
+      <c r="G50" s="2">
+        <v>83.379280060388524</v>
+      </c>
+      <c r="H50" s="2">
+        <v>83.324913446536286</v>
+      </c>
+      <c r="I50" s="2">
+        <v>83.323486811192382</v>
+      </c>
+      <c r="K50">
+        <v>17672</v>
+      </c>
+      <c r="L50" s="2">
+        <v>84.868718877320106</v>
+      </c>
+      <c r="M50" s="2">
+        <v>84.891353553644194</v>
+      </c>
+      <c r="N50" s="2">
+        <v>84.874377546401107</v>
+      </c>
+      <c r="O50" s="2">
+        <v>84.876641014033495</v>
+      </c>
+      <c r="P50" s="1">
+        <v>8.6811230305938497E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51">
+        <v>171790</v>
+      </c>
+      <c r="F51" s="2">
+        <v>92.77927126199765</v>
+      </c>
+      <c r="G51" s="2">
+        <v>92.781709032737851</v>
+      </c>
+      <c r="H51" s="2">
+        <v>92.780509938247675</v>
+      </c>
+      <c r="I51" s="2">
+        <v>92.780362496192168</v>
+      </c>
+      <c r="K51">
+        <v>28159</v>
+      </c>
+      <c r="L51" s="2">
+        <v>93.167371000390602</v>
+      </c>
+      <c r="M51" s="2">
+        <v>93.170922262864494</v>
+      </c>
+      <c r="N51" s="2">
+        <v>93.167371000390602</v>
+      </c>
+      <c r="O51" s="2">
+        <v>93.168791505380199</v>
+      </c>
+      <c r="P51" s="1">
+        <v>3.3630573754302598E-6</v>
+      </c>
+      <c r="Q51" s="2">
+        <f>AVERAGE(F48:F51)</f>
+        <v>86.447204950398714</v>
+      </c>
+      <c r="R51" s="2">
+        <f>AVERAGE(O48:O51)</f>
+        <v>86.846522908413277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52">
+        <v>39604457</v>
+      </c>
+      <c r="F52" s="2">
+        <v>90.8398048220714</v>
+      </c>
+      <c r="G52" s="2">
+        <v>90.8718738288445</v>
+      </c>
+      <c r="H52" s="2">
+        <v>90.852243755394397</v>
+      </c>
+      <c r="I52" s="2">
+        <v>90.856004476567094</v>
+      </c>
+      <c r="K52" s="4">
+        <v>155751</v>
+      </c>
+      <c r="L52" s="2">
+        <v>98.352498539335201</v>
+      </c>
+      <c r="M52" s="2">
+        <v>98.362129296120102</v>
+      </c>
+      <c r="N52" s="2">
+        <v>98.358919043858506</v>
+      </c>
+      <c r="O52" s="2">
+        <v>98.358148583315696</v>
+      </c>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53">
+        <v>252776</v>
+      </c>
+      <c r="F53" s="2">
+        <v>79.067701485245195</v>
+      </c>
+      <c r="G53" s="2">
+        <v>79.288245782497853</v>
+      </c>
+      <c r="H53" s="2">
+        <v>79.255107151712778</v>
+      </c>
+      <c r="I53" s="2">
+        <v>79.212173976256508</v>
+      </c>
+      <c r="K53">
+        <v>10250</v>
+      </c>
+      <c r="L53" s="2">
+        <v>80.439024390243901</v>
+      </c>
+      <c r="M53" s="2">
+        <v>80.448780487804896</v>
+      </c>
+      <c r="N53" s="2">
+        <v>80.443902439024399</v>
+      </c>
+      <c r="O53" s="2">
+        <v>80.443902439024399</v>
+      </c>
+      <c r="P53" s="1">
+        <v>2.64392887831607E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54">
+        <v>47949</v>
+      </c>
+      <c r="F54" s="2">
+        <v>87.137691726164746</v>
+      </c>
+      <c r="G54" s="2">
+        <v>87.14064275736358</v>
+      </c>
+      <c r="H54" s="2">
+        <v>87.139948274402997</v>
+      </c>
+      <c r="I54" s="2">
+        <v>87.139534712928295</v>
+      </c>
+      <c r="K54">
+        <v>6629</v>
+      </c>
+      <c r="L54" s="2">
+        <v>82.908432644441106</v>
+      </c>
+      <c r="M54" s="2">
+        <v>82.908432644441106</v>
+      </c>
+      <c r="N54" s="2">
+        <v>82.908432644441106</v>
+      </c>
+      <c r="O54" s="2">
+        <v>82.908432644441106</v>
+      </c>
+      <c r="P54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55">
+        <v>214016</v>
+      </c>
+      <c r="F55" s="2">
+        <v>82.820013587519028</v>
+      </c>
+      <c r="G55" s="2">
+        <v>83.034767225711605</v>
+      </c>
+      <c r="H55" s="2">
+        <v>82.980580500703383</v>
+      </c>
+      <c r="I55" s="2">
+        <v>82.948420767486439</v>
+      </c>
+      <c r="K55">
+        <v>17672</v>
+      </c>
+      <c r="L55" s="2">
+        <v>84.065187867813506</v>
+      </c>
+      <c r="M55" s="2">
+        <v>84.104798551380696</v>
+      </c>
+      <c r="N55" s="2">
+        <v>84.070846536894507</v>
+      </c>
+      <c r="O55" s="2">
+        <v>84.081032141240399</v>
+      </c>
+      <c r="P55" s="1">
+        <v>3.4724492122414701E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56">
+        <v>171790</v>
+      </c>
+      <c r="F56" s="2">
+        <v>92.438102103649683</v>
+      </c>
+      <c r="G56" s="2">
+        <v>92.439287810191644</v>
+      </c>
+      <c r="H56" s="2">
+        <v>92.439053521098288</v>
+      </c>
+      <c r="I56" s="2">
+        <v>92.438814284284959</v>
+      </c>
+      <c r="K56">
+        <v>28159</v>
+      </c>
+      <c r="L56" s="2">
+        <v>92.801590965588304</v>
+      </c>
+      <c r="M56" s="2">
+        <v>92.801590965588304</v>
+      </c>
+      <c r="N56" s="2">
+        <v>92.801590965588304</v>
+      </c>
+      <c r="O56" s="2">
+        <v>92.801590965588304</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2">
+        <f>AVERAGE(F53:F56)</f>
+        <v>85.365877225644667</v>
+      </c>
+      <c r="R56" s="2">
+        <f>AVERAGE(O53:O56)</f>
+        <v>85.058739547573552</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57">
+        <v>39604457</v>
+      </c>
+      <c r="F57" s="2">
+        <v>81.134207509323005</v>
+      </c>
+      <c r="G57" s="2">
+        <v>81.204589171152307</v>
+      </c>
+      <c r="H57" s="2">
+        <v>81.193022258369794</v>
+      </c>
+      <c r="I57" s="2">
+        <v>81.1872318439233</v>
+      </c>
+      <c r="K57" s="4">
+        <v>155751</v>
+      </c>
+      <c r="L57" s="2">
+        <v>88.275516690101497</v>
+      </c>
+      <c r="M57" s="2">
+        <v>88.330733029001394</v>
+      </c>
+      <c r="N57" s="2">
+        <v>88.312755616336304</v>
+      </c>
+      <c r="O57" s="2">
+        <v>88.311728335612599</v>
+      </c>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58">
+        <v>252776</v>
+      </c>
+      <c r="F58" s="2">
+        <v>79.307461267087717</v>
+      </c>
+      <c r="G58" s="2">
+        <v>79.371423476760299</v>
+      </c>
+      <c r="H58" s="2">
+        <v>79.340565876262531</v>
+      </c>
+      <c r="I58" s="2">
+        <v>79.34400910058001</v>
+      </c>
+      <c r="K58">
+        <v>10250</v>
+      </c>
+      <c r="L58" s="2">
+        <v>80.760975609756102</v>
+      </c>
+      <c r="M58" s="2">
+        <v>80.760975609756102</v>
+      </c>
+      <c r="N58" s="2">
+        <v>80.760975609756102</v>
+      </c>
+      <c r="O58" s="2">
+        <v>80.760975609756102</v>
+      </c>
+      <c r="P58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59">
+        <v>47949</v>
+      </c>
+      <c r="F59" s="2">
+        <v>87.207676004567205</v>
+      </c>
+      <c r="G59" s="2">
+        <v>87.209947151546373</v>
+      </c>
+      <c r="H59" s="2">
+        <v>87.20951544592225</v>
+      </c>
+      <c r="I59" s="2">
+        <v>87.209093542309859</v>
+      </c>
+      <c r="K59">
+        <v>6629</v>
+      </c>
+      <c r="L59" s="2">
+        <v>82.998944033790906</v>
+      </c>
+      <c r="M59" s="2">
+        <v>82.998944033790906</v>
+      </c>
+      <c r="N59" s="2">
+        <v>82.998944033790906</v>
+      </c>
+      <c r="O59" s="2">
+        <v>82.998944033790906</v>
+      </c>
+      <c r="P59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60">
+        <v>214016</v>
+      </c>
+      <c r="F60" s="2">
+        <v>82.927607207715624</v>
+      </c>
+      <c r="G60" s="2">
+        <v>83.040090533762921</v>
+      </c>
+      <c r="H60" s="2">
+        <v>82.984179212070984</v>
+      </c>
+      <c r="I60" s="2">
+        <v>82.983507315557532</v>
+      </c>
+      <c r="K60">
+        <v>17672</v>
+      </c>
+      <c r="L60" s="2">
+        <v>84.082163875056594</v>
+      </c>
+      <c r="M60" s="2">
+        <v>84.110457220461697</v>
+      </c>
+      <c r="N60" s="2">
+        <v>84.087822544137595</v>
+      </c>
+      <c r="O60" s="2">
+        <v>84.089520144861893</v>
+      </c>
+      <c r="P60" s="1">
+        <v>8.5743879113800306E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
         <v>38</v>
       </c>
-      <c r="E50">
+      <c r="E61">
         <v>171790</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F61" s="2">
         <v>92.309852544994925</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G61" s="2">
         <v>92.313282770155368</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H61" s="2">
         <v>92.31112352694602</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I61" s="2">
         <v>92.31138075017671</v>
       </c>
-      <c r="K50">
+      <c r="K61">
         <v>28159</v>
       </c>
-      <c r="L50" s="2">
-        <v>99.978458960129643</v>
-      </c>
-      <c r="M50" s="2">
-        <v>99.978469336353086</v>
-      </c>
-      <c r="N50" s="2">
-        <v>99.978469336353086</v>
-      </c>
-      <c r="O50" s="2">
-        <v>99.978467261108406</v>
-      </c>
-      <c r="Q50" s="2">
-        <f>AVERAGE(I47:I50)</f>
-        <v>85.461997677156035</v>
-      </c>
-      <c r="R50" s="2">
-        <f>AVERAGE(O47:O50)</f>
-        <v>99.933490155097957</v>
-      </c>
+      <c r="L61" s="2">
+        <v>92.627579104371605</v>
+      </c>
+      <c r="M61" s="2">
+        <v>92.631130366845397</v>
+      </c>
+      <c r="N61" s="2">
+        <v>92.631130366845397</v>
+      </c>
+      <c r="O61" s="2">
+        <v>92.630420114350699</v>
+      </c>
+      <c r="P61" s="1">
+        <v>2.24203825028684E-6</v>
+      </c>
+      <c r="Q61" s="2">
+        <f>AVERAGE(F58:F61)</f>
+        <v>85.438149256091364</v>
+      </c>
+      <c r="R61" s="2">
+        <f>AVERAGE(O58:O61)</f>
+        <v>85.119964975689896</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62">
+        <v>39604457</v>
+      </c>
+      <c r="F62" s="2">
+        <v>78.741985323742895</v>
+      </c>
+      <c r="G62" s="2">
+        <v>78.891399050055398</v>
+      </c>
+      <c r="H62" s="2">
+        <v>78.769231937673496</v>
+      </c>
+      <c r="I62" s="2">
+        <v>78.790380028906</v>
+      </c>
+      <c r="K62" s="4">
+        <v>155751</v>
+      </c>
+      <c r="L62" s="2">
+        <v>87.206502686981196</v>
+      </c>
+      <c r="M62" s="2">
+        <v>87.327850222470502</v>
+      </c>
+      <c r="N62" s="2">
+        <v>87.229616503264793</v>
+      </c>
+      <c r="O62" s="2">
+        <v>87.2459887897991</v>
+      </c>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58446647-2029-C541-AEC8-04F64EACB9A2}">
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>13.0112501986436</v>
+      </c>
+      <c r="E3" s="2">
+        <v>13.495099057125</v>
+      </c>
+      <c r="F3" s="2">
+        <v>13.361922710729001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>13.3181321930286</v>
+      </c>
+      <c r="H3" s="2">
+        <v>33.112195121951203</v>
+      </c>
+      <c r="I3" s="2">
+        <v>33.170731707317103</v>
+      </c>
+      <c r="J3" s="2">
+        <v>33.1609756097561</v>
+      </c>
+      <c r="K3" s="2">
+        <v>33.151219512195098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>16.808963727320599</v>
+      </c>
+      <c r="E4" s="2">
+        <v>16.820346574537801</v>
+      </c>
+      <c r="F4" s="2">
+        <v>16.815259955929701</v>
+      </c>
+      <c r="G4" s="2">
+        <v>16.814558590682601</v>
+      </c>
+      <c r="H4" s="2">
+        <v>14.1650324332479</v>
+      </c>
+      <c r="I4" s="2">
+        <v>14.1650324332479</v>
+      </c>
+      <c r="J4" s="2">
+        <v>14.1650324332479</v>
+      </c>
+      <c r="K4" s="2">
+        <v>14.1650324332479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4.0541404707456596</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.2899793381314701</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.1750388808875796</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4.1695704697706804</v>
+      </c>
+      <c r="H5" s="2">
+        <v>9.4103666817564502</v>
+      </c>
+      <c r="I5" s="2">
+        <v>9.4443186962426395</v>
+      </c>
+      <c r="J5" s="2">
+        <v>9.4160253508374794</v>
+      </c>
+      <c r="K5" s="2">
+        <v>9.4216840199185192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7.1796693361377404</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7.2102606292839697</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7.1977352139837203</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7.19617494335884</v>
+      </c>
+      <c r="H6" s="2">
+        <v>13.2888241769949</v>
+      </c>
+      <c r="I6" s="2">
+        <v>13.3314393266806</v>
+      </c>
+      <c r="J6" s="2">
+        <v>13.3136830143116</v>
+      </c>
+      <c r="K6" s="2">
+        <v>13.3108420043325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>52.777693084658502</v>
+      </c>
+      <c r="E7" s="2">
+        <v>52.853121092659499</v>
+      </c>
+      <c r="F7" s="2">
+        <v>52.822802565636501</v>
+      </c>
+      <c r="G7" s="2">
+        <v>52.8185565288844</v>
+      </c>
+      <c r="H7" s="2">
+        <v>91.787532664316799</v>
+      </c>
+      <c r="I7" s="2">
+        <v>91.808078278791101</v>
+      </c>
+      <c r="J7" s="2">
+        <v>91.792669067935407</v>
+      </c>
+      <c r="K7" s="2">
+        <v>91.795879320197002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>13.0662849017792</v>
+      </c>
+      <c r="E8" s="2">
+        <v>13.4908644924672</v>
+      </c>
+      <c r="F8" s="2">
+        <v>13.4034195850277</v>
+      </c>
+      <c r="G8" s="2">
+        <v>13.3673181015336</v>
+      </c>
+      <c r="H8" s="2">
+        <v>33.112195121951203</v>
+      </c>
+      <c r="I8" s="2">
+        <v>33.170731707317103</v>
+      </c>
+      <c r="J8" s="2">
+        <v>33.151219512195098</v>
+      </c>
+      <c r="K8" s="2">
+        <v>33.143414634146303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>16.8095351637694</v>
+      </c>
+      <c r="E9" s="2">
+        <v>16.819587439985401</v>
+      </c>
+      <c r="F9" s="2">
+        <v>16.8148637043777</v>
+      </c>
+      <c r="G9" s="2">
+        <v>16.814813442996599</v>
+      </c>
+      <c r="H9" s="2">
+        <v>14.1650324332479</v>
+      </c>
+      <c r="I9" s="2">
+        <v>14.1650324332479</v>
+      </c>
+      <c r="J9" s="2">
+        <v>14.1650324332479</v>
+      </c>
+      <c r="K9" s="2">
+        <v>14.1650324332479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4.0857936432945996</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.2676053583205196</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4.1792420622297701</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4.1928588652213099</v>
+      </c>
+      <c r="H10" s="2">
+        <v>9.4103666817564502</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9.4330013580805794</v>
+      </c>
+      <c r="J10" s="2">
+        <v>9.4160253508374794</v>
+      </c>
+      <c r="K10" s="2">
+        <v>9.4182888184698896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7.1791856080041496</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7.2016326889758302</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7.19188303493313</v>
+      </c>
+      <c r="G11" s="2">
+        <v>7.1905533937745902</v>
+      </c>
+      <c r="H11" s="2">
+        <v>13.2888241769949</v>
+      </c>
+      <c r="I11" s="2">
+        <v>13.3278880642068</v>
+      </c>
+      <c r="J11" s="2">
+        <v>13.2977023331794</v>
+      </c>
+      <c r="K11" s="2">
+        <v>13.3058702368692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>52.781090699729397</v>
+      </c>
+      <c r="E12" s="2">
+        <v>52.830967517877703</v>
+      </c>
+      <c r="F12" s="2">
+        <v>52.810685093607702</v>
+      </c>
+      <c r="G12" s="2">
+        <v>52.8105755448263</v>
+      </c>
+      <c r="H12" s="2">
+        <v>91.757998343509797</v>
+      </c>
+      <c r="I12" s="2">
+        <v>91.818993136480699</v>
+      </c>
+      <c r="J12" s="2">
+        <v>91.777259857079599</v>
+      </c>
+      <c r="K12" s="2">
+        <v>91.789394610628506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-0.52864014021536099</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-0.259095304091707</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-0.33767152034123998</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-0.39153242145928902</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9.3853658536585396</v>
+      </c>
+      <c r="I13" s="2">
+        <v>9.3951219512195099</v>
+      </c>
+      <c r="J13" s="2">
+        <v>9.3902439024390194</v>
+      </c>
+      <c r="K13" s="2">
+        <v>9.3902439024390194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>14.864880619105101</v>
+      </c>
+      <c r="E14" s="2">
+        <v>14.883583692363301</v>
+      </c>
+      <c r="F14" s="2">
+        <v>14.872406270292901</v>
+      </c>
+      <c r="G14" s="2">
+        <v>14.8729422526555</v>
+      </c>
+      <c r="H14" s="2">
+        <v>10.9971338060039</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10.9971338060039</v>
+      </c>
+      <c r="J14" s="2">
+        <v>10.9971338060039</v>
+      </c>
+      <c r="K14" s="2">
+        <v>10.9971338060039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.0271090174362398</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.25460600315877</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.19802624342047</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2.1656420056135701</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4.8042100497962901</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4.8438207333635104</v>
+      </c>
+      <c r="J15" s="2">
+        <v>4.8098687188773201</v>
+      </c>
+      <c r="K15" s="2">
+        <v>4.8200543232231796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.5317539491410599</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.53330933009527</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.53255463271236</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1.53253251277364</v>
+      </c>
+      <c r="H16" s="2">
+        <v>6.64441208849746</v>
+      </c>
+      <c r="I16" s="2">
+        <v>6.64441208849746</v>
+      </c>
+      <c r="J16" s="2">
+        <v>6.64441208849746</v>
+      </c>
+      <c r="K16" s="2">
+        <v>6.64441208849746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5.9743562563723396</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6.4407273038717596</v>
+      </c>
+      <c r="F17" s="2">
+        <v>6.2424149952694199</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6.2675309742569496</v>
+      </c>
+      <c r="H17" s="2">
+        <v>43.0514089797176</v>
+      </c>
+      <c r="I17" s="2">
+        <v>43.274842537126602</v>
+      </c>
+      <c r="J17" s="2">
+        <v>43.1977964828476</v>
+      </c>
+      <c r="K17" s="2">
+        <v>43.201969810787702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-0.21488556290771399</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-3.4990938846580402E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-8.2263855866242797E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-9.8548929733958707E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>10.3707317073171</v>
+      </c>
+      <c r="I18" s="2">
+        <v>10.3707317073171</v>
+      </c>
+      <c r="J18" s="2">
+        <v>10.3707317073171</v>
+      </c>
+      <c r="K18" s="2">
+        <v>10.3707317073171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>14.660491983007301</v>
+      </c>
+      <c r="E19" s="2">
+        <v>14.687716550169799</v>
+      </c>
+      <c r="F19" s="2">
+        <v>14.676056326866201</v>
+      </c>
+      <c r="G19" s="2">
+        <v>14.6755985520468</v>
+      </c>
+      <c r="H19" s="2">
+        <v>10.4389802383467</v>
+      </c>
+      <c r="I19" s="2">
+        <v>10.4389802383467</v>
+      </c>
+      <c r="J19" s="2">
+        <v>10.4389802383467</v>
+      </c>
+      <c r="K19" s="2">
+        <v>10.4389802383467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2.1536983449432001</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.27594922113982</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2.2193993656431901</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2.21582136985332</v>
+      </c>
+      <c r="H20" s="2">
+        <v>4.8438207333635104</v>
+      </c>
+      <c r="I20" s="2">
+        <v>4.8721140787686696</v>
+      </c>
+      <c r="J20" s="2">
+        <v>4.8494794024445396</v>
+      </c>
+      <c r="K20" s="2">
+        <v>4.8511770031688499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.70741368548151595</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.72968788166899201</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.723895950346233</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.72267696709166096</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5.4121240100855896</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5.4618416847189204</v>
+      </c>
+      <c r="J21" s="2">
+        <v>5.45296352853439</v>
+      </c>
+      <c r="K21" s="2">
+        <v>5.4487020135658204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-4.0131076073561198</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-3.73581694792203</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-3.94111527579869</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-3.8854819575685999</v>
+      </c>
+      <c r="H22" s="2">
+        <v>38.603283446013201</v>
+      </c>
+      <c r="I22" s="2">
+        <v>38.830569306136098</v>
+      </c>
+      <c r="J22" s="2">
+        <v>38.761869907737299</v>
+      </c>
+      <c r="K22" s="2">
+        <v>38.726878158085697</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2">
+        <v>89.009937103818103</v>
+      </c>
+      <c r="E23" s="2">
+        <v>90.721878944066404</v>
+      </c>
+      <c r="F23" s="2">
+        <v>89.738061279103604</v>
+      </c>
+      <c r="G23" s="2">
+        <v>89.874722873180602</v>
+      </c>
+      <c r="H23" s="2">
+        <v>87.239024390243898</v>
+      </c>
+      <c r="I23" s="2">
+        <v>88.770731707317097</v>
+      </c>
+      <c r="J23" s="2">
+        <v>87.521951219512204</v>
+      </c>
+      <c r="K23" s="2">
+        <v>87.828292682926801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2">
+        <v>83.899632067920706</v>
+      </c>
+      <c r="E24" s="2">
+        <v>87.926500926321395</v>
+      </c>
+      <c r="F24" s="2">
+        <v>85.815629283231601</v>
+      </c>
+      <c r="G24" s="2">
+        <v>85.714874192530601</v>
+      </c>
+      <c r="H24" s="2">
+        <v>79.559511238497507</v>
+      </c>
+      <c r="I24" s="2">
+        <v>82.938603107557697</v>
+      </c>
+      <c r="J24" s="2">
+        <v>81.233971941469306</v>
+      </c>
+      <c r="K24" s="2">
+        <v>81.283753205611703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2">
+        <v>92.667035585327994</v>
+      </c>
+      <c r="E25" s="2">
+        <v>94.329952057613198</v>
+      </c>
+      <c r="F25" s="2">
+        <v>93.460075515125595</v>
+      </c>
+      <c r="G25" s="2">
+        <v>93.460273630726604</v>
+      </c>
+      <c r="H25" s="2">
+        <v>84.772521502942496</v>
+      </c>
+      <c r="I25" s="2">
+        <v>87.177455862381194</v>
+      </c>
+      <c r="J25" s="2">
+        <v>86.090991398822993</v>
+      </c>
+      <c r="K25" s="2">
+        <v>86.077410593028503</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2">
+        <v>86.659254236394702</v>
+      </c>
+      <c r="E26" s="2">
+        <v>88.315161580535005</v>
+      </c>
+      <c r="F26" s="2">
+        <v>87.875443102392197</v>
+      </c>
+      <c r="G26" s="2">
+        <v>87.739488196192397</v>
+      </c>
+      <c r="H26" s="2">
+        <v>81.320359387762394</v>
+      </c>
+      <c r="I26" s="2">
+        <v>83.614474945843199</v>
+      </c>
+      <c r="J26" s="2">
+        <v>83.099541887140902</v>
+      </c>
+      <c r="K26" s="2">
+        <v>82.8278703078945</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2">
+        <v>93.126710729757306</v>
+      </c>
+      <c r="E27" s="2">
+        <v>94.0573869890856</v>
+      </c>
+      <c r="F27" s="2">
+        <v>93.539676584764706</v>
+      </c>
+      <c r="G27" s="2">
+        <v>93.6484839856398</v>
+      </c>
+      <c r="H27" s="2">
+        <v>96.168884950979404</v>
+      </c>
+      <c r="I27" s="2">
+        <v>97.177546211581301</v>
+      </c>
+      <c r="J27" s="2">
+        <v>96.580118265693301</v>
+      </c>
+      <c r="K27" s="2">
+        <v>96.578641549653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>89.013727007538293</v>
+      </c>
+      <c r="E28" s="2">
+        <v>90.734214724630505</v>
+      </c>
+      <c r="F28" s="2">
+        <v>89.737159495645301</v>
+      </c>
+      <c r="G28" s="2">
+        <v>89.8795321739683</v>
+      </c>
+      <c r="H28" s="2">
+        <v>87.239024390243898</v>
+      </c>
+      <c r="I28" s="2">
+        <v>88.731707317073202</v>
+      </c>
+      <c r="J28" s="2">
+        <v>87.521951219512204</v>
+      </c>
+      <c r="K28" s="2">
+        <v>87.826341463414593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
+        <v>83.899663350937999</v>
+      </c>
+      <c r="E29" s="2">
+        <v>87.926444616890294</v>
+      </c>
+      <c r="F29" s="2">
+        <v>85.818190319578804</v>
+      </c>
+      <c r="G29" s="2">
+        <v>85.715458350739695</v>
+      </c>
+      <c r="H29" s="2">
+        <v>79.559511238497507</v>
+      </c>
+      <c r="I29" s="2">
+        <v>82.938603107557697</v>
+      </c>
+      <c r="J29" s="2">
+        <v>81.233971941469306</v>
+      </c>
+      <c r="K29" s="2">
+        <v>81.283753205611703</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2">
+        <v>92.667035585327994</v>
+      </c>
+      <c r="E30" s="2">
+        <v>94.335183430889501</v>
+      </c>
+      <c r="F30" s="2">
+        <v>93.457709108376903</v>
+      </c>
+      <c r="G30" s="2">
+        <v>93.460812280879594</v>
+      </c>
+      <c r="H30" s="2">
+        <v>84.772521502942496</v>
+      </c>
+      <c r="I30" s="2">
+        <v>87.177455862381194</v>
+      </c>
+      <c r="J30" s="2">
+        <v>86.090991398822993</v>
+      </c>
+      <c r="K30" s="2">
+        <v>86.077410593028503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2">
+        <v>86.659240265907002</v>
+      </c>
+      <c r="E31" s="2">
+        <v>88.316924190388804</v>
+      </c>
+      <c r="F31" s="2">
+        <v>87.875392459374595</v>
+      </c>
+      <c r="G31" s="2">
+        <v>87.739804744157595</v>
+      </c>
+      <c r="H31" s="2">
+        <v>81.320359387762394</v>
+      </c>
+      <c r="I31" s="2">
+        <v>83.618026208317005</v>
+      </c>
+      <c r="J31" s="2">
+        <v>83.099541887140902</v>
+      </c>
+      <c r="K31" s="2">
+        <v>82.828580560389199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2">
+        <v>93.121129812438795</v>
+      </c>
+      <c r="E32" s="2">
+        <v>94.055381916778003</v>
+      </c>
+      <c r="F32" s="2">
+        <v>93.541932266492296</v>
+      </c>
+      <c r="G32" s="2">
+        <v>93.645610021732693</v>
+      </c>
+      <c r="H32" s="2">
+        <v>96.168884950979404</v>
+      </c>
+      <c r="I32" s="2">
+        <v>97.177546211581301</v>
+      </c>
+      <c r="J32" s="2">
+        <v>96.579797240467201</v>
+      </c>
+      <c r="K32" s="2">
+        <v>96.578705754698206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2">
+        <v>88.147866535415204</v>
+      </c>
+      <c r="E33" s="2">
+        <v>90.078491754407807</v>
+      </c>
+      <c r="F33" s="2">
+        <v>89.136883845424606</v>
+      </c>
+      <c r="G33" s="2">
+        <v>89.145769389422398</v>
+      </c>
+      <c r="H33" s="2">
+        <v>85.492682926829303</v>
+      </c>
+      <c r="I33" s="2">
+        <v>87.853658536585399</v>
+      </c>
+      <c r="J33" s="2">
+        <v>86.068292682926796</v>
+      </c>
+      <c r="K33" s="2">
+        <v>86.469268292682898</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2">
+        <v>83.763757410712202</v>
+      </c>
+      <c r="E34" s="2">
+        <v>87.861968232763303</v>
+      </c>
+      <c r="F34" s="2">
+        <v>85.678375044961498</v>
+      </c>
+      <c r="G34" s="2">
+        <v>85.590859761382703</v>
+      </c>
+      <c r="H34" s="2">
+        <v>79.287977070447994</v>
+      </c>
+      <c r="I34" s="2">
+        <v>82.802836023533004</v>
+      </c>
+      <c r="J34" s="2">
+        <v>81.052949162769707</v>
+      </c>
+      <c r="K34" s="2">
+        <v>81.077085533262903</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2">
+        <v>92.646569402684506</v>
+      </c>
+      <c r="E35" s="2">
+        <v>94.272209303226404</v>
+      </c>
+      <c r="F35" s="2">
+        <v>93.429105000343398</v>
+      </c>
+      <c r="G35" s="2">
+        <v>93.424862102430197</v>
+      </c>
+      <c r="H35" s="2">
+        <v>84.704617473970103</v>
+      </c>
+      <c r="I35" s="2">
+        <v>87.013354459031206</v>
+      </c>
+      <c r="J35" s="2">
+        <v>86.014599366229106</v>
+      </c>
+      <c r="K35" s="2">
+        <v>85.993662290629203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2">
+        <v>86.574263610795597</v>
+      </c>
+      <c r="E36" s="2">
+        <v>88.265655411368598</v>
+      </c>
+      <c r="F36" s="2">
+        <v>87.820329237708293</v>
+      </c>
+      <c r="G36" s="2">
+        <v>87.688555174557706</v>
+      </c>
+      <c r="H36" s="2">
+        <v>81.235129088390906</v>
+      </c>
+      <c r="I36" s="2">
+        <v>83.525693383998004</v>
+      </c>
+      <c r="J36" s="2">
+        <v>83.035619162612306</v>
+      </c>
+      <c r="K36" s="2">
+        <v>82.767853972087096</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2">
+        <v>89.5750826396376</v>
+      </c>
+      <c r="E37" s="2">
+        <v>90.649785774501396</v>
+      </c>
+      <c r="F37" s="2">
+        <v>89.959532035000095</v>
+      </c>
+      <c r="G37" s="2">
+        <v>90.015878712840006</v>
+      </c>
+      <c r="H37" s="2">
+        <v>92.419310309404096</v>
+      </c>
+      <c r="I37" s="2">
+        <v>93.069707417608896</v>
+      </c>
+      <c r="J37" s="2">
+        <v>92.693786877772894</v>
+      </c>
+      <c r="K37" s="2">
+        <v>92.749324241898904</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2">
+        <v>88.127770946764201</v>
+      </c>
+      <c r="E38" s="2">
+        <v>90.140208239780804</v>
+      </c>
+      <c r="F38" s="2">
+        <v>89.146695067471995</v>
+      </c>
+      <c r="G38" s="2">
+        <v>89.154082056637506</v>
+      </c>
+      <c r="H38" s="2">
+        <v>85.648780487804899</v>
+      </c>
+      <c r="I38" s="2">
+        <v>87.921951219512195</v>
+      </c>
+      <c r="J38" s="2">
+        <v>86.151219512195098</v>
+      </c>
+      <c r="K38" s="2">
+        <v>86.537560975609793</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2">
+        <v>83.691614601819595</v>
+      </c>
+      <c r="E39" s="2">
+        <v>87.848101513974996</v>
+      </c>
+      <c r="F39" s="2">
+        <v>85.662996313671798</v>
+      </c>
+      <c r="G39" s="2">
+        <v>85.560238901312104</v>
+      </c>
+      <c r="H39" s="2">
+        <v>79.197465681098194</v>
+      </c>
+      <c r="I39" s="2">
+        <v>82.757580328858097</v>
+      </c>
+      <c r="J39" s="2">
+        <v>80.992608236536398</v>
+      </c>
+      <c r="K39" s="2">
+        <v>81.010710514406398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2">
+        <v>92.646275500059403</v>
+      </c>
+      <c r="E40" s="2">
+        <v>94.272277522277705</v>
+      </c>
+      <c r="F40" s="2">
+        <v>93.428859458484098</v>
+      </c>
+      <c r="G40" s="2">
+        <v>93.425029706359695</v>
+      </c>
+      <c r="H40" s="2">
+        <v>84.704617473970103</v>
+      </c>
+      <c r="I40" s="2">
+        <v>87.013354459031206</v>
+      </c>
+      <c r="J40" s="2">
+        <v>86.014599366229106</v>
+      </c>
+      <c r="K40" s="2">
+        <v>85.995359891353601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2">
+        <v>86.572775753864804</v>
+      </c>
+      <c r="E41" s="2">
+        <v>88.2658236393235</v>
+      </c>
+      <c r="F41" s="2">
+        <v>87.812041245932093</v>
+      </c>
+      <c r="G41" s="2">
+        <v>87.680894632306405</v>
+      </c>
+      <c r="H41" s="2">
+        <v>81.2315778259171</v>
+      </c>
+      <c r="I41" s="2">
+        <v>83.525693383998004</v>
+      </c>
+      <c r="J41" s="2">
+        <v>83.021414112717096</v>
+      </c>
+      <c r="K41" s="2">
+        <v>82.756845058418307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2">
+        <v>88.753369151828693</v>
+      </c>
+      <c r="E42" s="2">
+        <v>90.257194238724196</v>
+      </c>
+      <c r="F42" s="2">
+        <v>89.242559064130106</v>
+      </c>
+      <c r="G42" s="2">
+        <v>89.291389697501998</v>
+      </c>
+      <c r="H42" s="2">
+        <v>92.244672586371806</v>
+      </c>
+      <c r="I42" s="2">
+        <v>93.011922876899703</v>
+      </c>
+      <c r="J42" s="2">
+        <v>92.401653921965206</v>
+      </c>
+      <c r="K42" s="2">
+        <v>92.510417268588995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="2">
+        <v>80.3469700372506</v>
+      </c>
+      <c r="E43" s="2">
+        <v>82.352851350679401</v>
+      </c>
+      <c r="F43" s="2">
+        <v>81.554636110495395</v>
+      </c>
+      <c r="G43" s="2">
+        <v>81.5274255907987</v>
+      </c>
+      <c r="H43" s="2">
+        <v>67.248780487804893</v>
+      </c>
+      <c r="I43" s="2">
+        <v>71.678048780487799</v>
+      </c>
+      <c r="J43" s="2">
+        <v>69.443902439024399</v>
+      </c>
+      <c r="K43" s="2">
+        <v>69.495609756097593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="2">
+        <v>65.762675060025302</v>
+      </c>
+      <c r="E44" s="2">
+        <v>72.028577912200205</v>
+      </c>
+      <c r="F44" s="2">
+        <v>67.858445347911896</v>
+      </c>
+      <c r="G44" s="2">
+        <v>68.402389446911897</v>
+      </c>
+      <c r="H44" s="2">
+        <v>49.977372152662497</v>
+      </c>
+      <c r="I44" s="2">
+        <v>58.907829235178802</v>
+      </c>
+      <c r="J44" s="2">
+        <v>53.386634484839298</v>
+      </c>
+      <c r="K44" s="2">
+        <v>54.3113591793634</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2">
+        <v>82.176672465504097</v>
+      </c>
+      <c r="E45" s="2">
+        <v>84.721366901205897</v>
+      </c>
+      <c r="F45" s="2">
+        <v>83.180471883513306</v>
+      </c>
+      <c r="G45" s="2">
+        <v>83.229678331940605</v>
+      </c>
+      <c r="H45" s="2">
+        <v>55.058850158442702</v>
+      </c>
+      <c r="I45" s="2">
+        <v>61.164554096876401</v>
+      </c>
+      <c r="J45" s="2">
+        <v>57.353440470801303</v>
+      </c>
+      <c r="K45" s="2">
+        <v>57.974196468990499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2">
+        <v>66.5854634014525</v>
+      </c>
+      <c r="E46" s="2">
+        <v>76.032090582592701</v>
+      </c>
+      <c r="F46" s="2">
+        <v>70.289781849729906</v>
+      </c>
+      <c r="G46" s="2">
+        <v>70.888600431952298</v>
+      </c>
+      <c r="H46" s="2">
+        <v>52.555133349905901</v>
+      </c>
+      <c r="I46" s="2">
+        <v>65.7303171277389</v>
+      </c>
+      <c r="J46" s="2">
+        <v>57.688483255797401</v>
+      </c>
+      <c r="K46" s="2">
+        <v>58.543627259490698</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2">
+        <v>73.456413872453894</v>
+      </c>
+      <c r="E47" s="2">
+        <v>75.472478041339997</v>
+      </c>
+      <c r="F47" s="2">
+        <v>74.479591283845707</v>
+      </c>
+      <c r="G47" s="2">
+        <v>74.511429768331894</v>
+      </c>
+      <c r="H47" s="2">
+        <v>78.938819012398</v>
+      </c>
+      <c r="I47" s="2">
+        <v>80.535598487329096</v>
+      </c>
+      <c r="J47" s="2">
+        <v>79.610403785529499</v>
+      </c>
+      <c r="K47" s="2">
+        <v>79.707096583649502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B19479-5FCC-6B42-89D0-EF9AB1FC7FD3}">
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>13.0112501986436</v>
+      </c>
+      <c r="E3" s="2">
+        <v>13.495099057125</v>
+      </c>
+      <c r="F3" s="2">
+        <v>13.361922710729001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>13.3181321930286</v>
+      </c>
+      <c r="H3" s="2">
+        <v>33.112195121951203</v>
+      </c>
+      <c r="I3" s="2">
+        <v>33.170731707317103</v>
+      </c>
+      <c r="J3" s="2">
+        <v>33.1609756097561</v>
+      </c>
+      <c r="K3" s="2">
+        <v>33.151219512195098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>16.808963727320599</v>
+      </c>
+      <c r="E4" s="2">
+        <v>16.820346574537801</v>
+      </c>
+      <c r="F4" s="2">
+        <v>16.815259955929701</v>
+      </c>
+      <c r="G4" s="2">
+        <v>16.814558590682601</v>
+      </c>
+      <c r="H4" s="2">
+        <v>14.1650324332479</v>
+      </c>
+      <c r="I4" s="2">
+        <v>14.1650324332479</v>
+      </c>
+      <c r="J4" s="2">
+        <v>14.1650324332479</v>
+      </c>
+      <c r="K4" s="2">
+        <v>14.1650324332479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4.0541404707456596</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.2899793381314701</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.1750388808875796</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4.1695704697706804</v>
+      </c>
+      <c r="H5" s="2">
+        <v>9.4103666817564502</v>
+      </c>
+      <c r="I5" s="2">
+        <v>9.4443186962426395</v>
+      </c>
+      <c r="J5" s="2">
+        <v>9.4160253508374794</v>
+      </c>
+      <c r="K5" s="2">
+        <v>9.4216840199185192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7.1796693361377404</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7.2102606292839697</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7.1977352139837203</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7.19617494335884</v>
+      </c>
+      <c r="H6" s="2">
+        <v>13.2888241769949</v>
+      </c>
+      <c r="I6" s="2">
+        <v>13.3314393266806</v>
+      </c>
+      <c r="J6" s="2">
+        <v>13.3136830143116</v>
+      </c>
+      <c r="K6" s="2">
+        <v>13.3108420043325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>52.777693084658502</v>
+      </c>
+      <c r="E7" s="2">
+        <v>52.853121092659499</v>
+      </c>
+      <c r="F7" s="2">
+        <v>52.822802565636501</v>
+      </c>
+      <c r="G7" s="2">
+        <v>52.8185565288844</v>
+      </c>
+      <c r="H7" s="2">
+        <v>91.787532664316799</v>
+      </c>
+      <c r="I7" s="2">
+        <v>91.808078278791101</v>
+      </c>
+      <c r="J7" s="2">
+        <v>91.792669067935407</v>
+      </c>
+      <c r="K7" s="2">
+        <v>91.795879320197002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>13.0662849017792</v>
+      </c>
+      <c r="E8" s="2">
+        <v>13.4908644924672</v>
+      </c>
+      <c r="F8" s="2">
+        <v>13.4034195850277</v>
+      </c>
+      <c r="G8" s="2">
+        <v>13.3673181015336</v>
+      </c>
+      <c r="H8" s="2">
+        <v>33.112195121951203</v>
+      </c>
+      <c r="I8" s="2">
+        <v>33.170731707317103</v>
+      </c>
+      <c r="J8" s="2">
+        <v>33.151219512195098</v>
+      </c>
+      <c r="K8" s="2">
+        <v>33.143414634146303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>16.8095351637694</v>
+      </c>
+      <c r="E9" s="2">
+        <v>16.819587439985401</v>
+      </c>
+      <c r="F9" s="2">
+        <v>16.8148637043777</v>
+      </c>
+      <c r="G9" s="2">
+        <v>16.814813442996599</v>
+      </c>
+      <c r="H9" s="2">
+        <v>14.1650324332479</v>
+      </c>
+      <c r="I9" s="2">
+        <v>14.1650324332479</v>
+      </c>
+      <c r="J9" s="2">
+        <v>14.1650324332479</v>
+      </c>
+      <c r="K9" s="2">
+        <v>14.1650324332479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4.0857936432945996</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.2676053583205196</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4.1792420622297701</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4.1928588652213099</v>
+      </c>
+      <c r="H10" s="2">
+        <v>9.4103666817564502</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9.4330013580805794</v>
+      </c>
+      <c r="J10" s="2">
+        <v>9.4160253508374794</v>
+      </c>
+      <c r="K10" s="2">
+        <v>9.4182888184698896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7.1791856080041496</v>
+      </c>
+      <c r="E11" s="2">
+        <v>7.2016326889758302</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7.19188303493313</v>
+      </c>
+      <c r="G11" s="2">
+        <v>7.1905533937745902</v>
+      </c>
+      <c r="H11" s="2">
+        <v>13.2888241769949</v>
+      </c>
+      <c r="I11" s="2">
+        <v>13.3278880642068</v>
+      </c>
+      <c r="J11" s="2">
+        <v>13.2977023331794</v>
+      </c>
+      <c r="K11" s="2">
+        <v>13.3058702368692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>52.781090699729397</v>
+      </c>
+      <c r="E12" s="2">
+        <v>52.830967517877703</v>
+      </c>
+      <c r="F12" s="2">
+        <v>52.810685093607702</v>
+      </c>
+      <c r="G12" s="2">
+        <v>52.8105755448263</v>
+      </c>
+      <c r="H12" s="2">
+        <v>91.757998343509797</v>
+      </c>
+      <c r="I12" s="2">
+        <v>91.818993136480699</v>
+      </c>
+      <c r="J12" s="2">
+        <v>91.777259857079599</v>
+      </c>
+      <c r="K12" s="2">
+        <v>91.789394610628506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-0.52864014021536099</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-0.259095304091707</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-0.33767152034123998</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-0.39153242145928902</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9.3853658536585396</v>
+      </c>
+      <c r="I13" s="2">
+        <v>9.3951219512195099</v>
+      </c>
+      <c r="J13" s="2">
+        <v>9.3902439024390194</v>
+      </c>
+      <c r="K13" s="2">
+        <v>9.3902439024390194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>14.864880619105101</v>
+      </c>
+      <c r="E14" s="2">
+        <v>14.883583692363301</v>
+      </c>
+      <c r="F14" s="2">
+        <v>14.872406270292901</v>
+      </c>
+      <c r="G14" s="2">
+        <v>14.8729422526555</v>
+      </c>
+      <c r="H14" s="2">
+        <v>10.9971338060039</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10.9971338060039</v>
+      </c>
+      <c r="J14" s="2">
+        <v>10.9971338060039</v>
+      </c>
+      <c r="K14" s="2">
+        <v>10.9971338060039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.0271090174362398</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.25460600315877</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.19802624342047</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2.1656420056135701</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4.8042100497962901</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4.8438207333635104</v>
+      </c>
+      <c r="J15" s="2">
+        <v>4.8098687188773201</v>
+      </c>
+      <c r="K15" s="2">
+        <v>4.8200543232231796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.5317539491410599</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.53330933009527</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.53255463271236</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1.53253251277364</v>
+      </c>
+      <c r="H16" s="2">
+        <v>6.64441208849746</v>
+      </c>
+      <c r="I16" s="2">
+        <v>6.64441208849746</v>
+      </c>
+      <c r="J16" s="2">
+        <v>6.64441208849746</v>
+      </c>
+      <c r="K16" s="2">
+        <v>6.64441208849746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5.9743562563723396</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6.4407273038717596</v>
+      </c>
+      <c r="F17" s="2">
+        <v>6.2424149952694199</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6.2675309742569496</v>
+      </c>
+      <c r="H17" s="2">
+        <v>43.0514089797176</v>
+      </c>
+      <c r="I17" s="2">
+        <v>43.274842537126602</v>
+      </c>
+      <c r="J17" s="2">
+        <v>43.1977964828476</v>
+      </c>
+      <c r="K17" s="2">
+        <v>43.201969810787702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-0.21488556290771399</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-3.4990938846580402E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-8.2263855866242797E-2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-9.8548929733958707E-2</v>
+      </c>
+      <c r="H18" s="2">
+        <v>10.3707317073171</v>
+      </c>
+      <c r="I18" s="2">
+        <v>10.3707317073171</v>
+      </c>
+      <c r="J18" s="2">
+        <v>10.3707317073171</v>
+      </c>
+      <c r="K18" s="2">
+        <v>10.3707317073171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>14.660491983007301</v>
+      </c>
+      <c r="E19" s="2">
+        <v>14.687716550169799</v>
+      </c>
+      <c r="F19" s="2">
+        <v>14.676056326866201</v>
+      </c>
+      <c r="G19" s="2">
+        <v>14.6755985520468</v>
+      </c>
+      <c r="H19" s="2">
+        <v>10.4389802383467</v>
+      </c>
+      <c r="I19" s="2">
+        <v>10.4389802383467</v>
+      </c>
+      <c r="J19" s="2">
+        <v>10.4389802383467</v>
+      </c>
+      <c r="K19" s="2">
+        <v>10.4389802383467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2.1536983449432001</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.27594922113982</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2.2193993656431901</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2.21582136985332</v>
+      </c>
+      <c r="H20" s="2">
+        <v>4.8438207333635104</v>
+      </c>
+      <c r="I20" s="2">
+        <v>4.8721140787686696</v>
+      </c>
+      <c r="J20" s="2">
+        <v>4.8494794024445396</v>
+      </c>
+      <c r="K20" s="2">
+        <v>4.8511770031688499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.70741368548151595</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.72968788166899201</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.723895950346233</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.72267696709166096</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5.4121240100855896</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5.4618416847189204</v>
+      </c>
+      <c r="J21" s="2">
+        <v>5.45296352853439</v>
+      </c>
+      <c r="K21" s="2">
+        <v>5.4487020135658204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-4.0131076073561198</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-3.73581694792203</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-3.94111527579869</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-3.8854819575685999</v>
+      </c>
+      <c r="H22" s="2">
+        <v>38.603283446013201</v>
+      </c>
+      <c r="I22" s="2">
+        <v>38.830569306136098</v>
+      </c>
+      <c r="J22" s="2">
+        <v>38.761869907737299</v>
+      </c>
+      <c r="K22" s="2">
+        <v>38.726878158085697</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2">
+        <v>77.646060337720002</v>
+      </c>
+      <c r="E23" s="2">
+        <v>83.198397068529204</v>
+      </c>
+      <c r="F23" s="2">
+        <v>78.908987598430201</v>
+      </c>
+      <c r="G23" s="2">
+        <v>79.900451928216398</v>
+      </c>
+      <c r="H23" s="2">
+        <v>72.536585365853696</v>
+      </c>
+      <c r="I23" s="2">
+        <v>80.312195121951206</v>
+      </c>
+      <c r="J23" s="2">
+        <v>76.931707317073204</v>
+      </c>
+      <c r="K23" s="2">
+        <v>76.400975609756102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2">
+        <v>75.525458234158407</v>
+      </c>
+      <c r="E24" s="2">
+        <v>79.829202650739404</v>
+      </c>
+      <c r="F24" s="2">
+        <v>77.152438952286701</v>
+      </c>
+      <c r="G24" s="2">
+        <v>77.468137569112301</v>
+      </c>
+      <c r="H24" s="2">
+        <v>68.758485442751507</v>
+      </c>
+      <c r="I24" s="2">
+        <v>71.066525871172104</v>
+      </c>
+      <c r="J24" s="2">
+        <v>69.950218735857604</v>
+      </c>
+      <c r="K24" s="2">
+        <v>70.063357972544907</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2">
+        <v>88.538534479651403</v>
+      </c>
+      <c r="E25" s="2">
+        <v>90.3280571005795</v>
+      </c>
+      <c r="F25" s="2">
+        <v>89.498719962953103</v>
+      </c>
+      <c r="G25" s="2">
+        <v>89.397607554132904</v>
+      </c>
+      <c r="H25" s="2">
+        <v>77.376641014033495</v>
+      </c>
+      <c r="I25" s="2">
+        <v>79.526935264825696</v>
+      </c>
+      <c r="J25" s="2">
+        <v>77.871774558623798</v>
+      </c>
+      <c r="K25" s="2">
+        <v>78.132639203259401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2">
+        <v>72.090066033896306</v>
+      </c>
+      <c r="E26" s="2">
+        <v>82.054693283154293</v>
+      </c>
+      <c r="F26" s="2">
+        <v>79.867873938771893</v>
+      </c>
+      <c r="G26" s="2">
+        <v>78.333354473397605</v>
+      </c>
+      <c r="H26" s="2">
+        <v>61.1882524237366</v>
+      </c>
+      <c r="I26" s="2">
+        <v>75.368443481657707</v>
+      </c>
+      <c r="J26" s="2">
+        <v>72.2646400795483</v>
+      </c>
+      <c r="K26" s="2">
+        <v>69.937142654213602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2">
+        <v>73.148536226313098</v>
+      </c>
+      <c r="E27" s="2">
+        <v>75.043953032222902</v>
+      </c>
+      <c r="F27" s="2">
+        <v>73.903548003010798</v>
+      </c>
+      <c r="G27" s="2">
+        <v>73.952145284868706</v>
+      </c>
+      <c r="H27" s="2">
+        <v>73.261808912944403</v>
+      </c>
+      <c r="I27" s="2">
+        <v>74.868219144660401</v>
+      </c>
+      <c r="J27" s="2">
+        <v>73.901933213911903</v>
+      </c>
+      <c r="K27" s="2">
+        <v>73.939493165372895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>77.625358680958399</v>
+      </c>
+      <c r="E28" s="2">
+        <v>83.224873383391497</v>
+      </c>
+      <c r="F28" s="2">
+        <v>78.8910215558884</v>
+      </c>
+      <c r="G28" s="2">
+        <v>79.908539930888494</v>
+      </c>
+      <c r="H28" s="2">
+        <v>72.536585365853696</v>
+      </c>
+      <c r="I28" s="2">
+        <v>80.351219512195101</v>
+      </c>
+      <c r="J28" s="2">
+        <v>76.936585365853702</v>
+      </c>
+      <c r="K28" s="2">
+        <v>76.401951219512199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
+        <v>75.525454063089398</v>
+      </c>
+      <c r="E29" s="2">
+        <v>79.829275644446298</v>
+      </c>
+      <c r="F29" s="2">
+        <v>77.155078196177001</v>
+      </c>
+      <c r="G29" s="2">
+        <v>77.469089824157905</v>
+      </c>
+      <c r="H29" s="2">
+        <v>68.758485442751507</v>
+      </c>
+      <c r="I29" s="2">
+        <v>71.066525871172104</v>
+      </c>
+      <c r="J29" s="2">
+        <v>69.950218735857604</v>
+      </c>
+      <c r="K29" s="2">
+        <v>70.063357972544907</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2">
+        <v>88.538061618830099</v>
+      </c>
+      <c r="E30" s="2">
+        <v>90.3280571005795</v>
+      </c>
+      <c r="F30" s="2">
+        <v>89.504009976578303</v>
+      </c>
+      <c r="G30" s="2">
+        <v>89.400323186353802</v>
+      </c>
+      <c r="H30" s="2">
+        <v>77.376641014033495</v>
+      </c>
+      <c r="I30" s="2">
+        <v>79.526935264825696</v>
+      </c>
+      <c r="J30" s="2">
+        <v>77.871774558623798</v>
+      </c>
+      <c r="K30" s="2">
+        <v>78.132639203259401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2">
+        <v>72.090110855877398</v>
+      </c>
+      <c r="E31" s="2">
+        <v>82.056536805415504</v>
+      </c>
+      <c r="F31" s="2">
+        <v>79.869515762118198</v>
+      </c>
+      <c r="G31" s="2">
+        <v>78.333524447663507</v>
+      </c>
+      <c r="H31" s="2">
+        <v>61.1882524237366</v>
+      </c>
+      <c r="I31" s="2">
+        <v>75.371994744131499</v>
+      </c>
+      <c r="J31" s="2">
+        <v>72.268191342022106</v>
+      </c>
+      <c r="K31" s="2">
+        <v>69.937852906708301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2">
+        <v>73.148536226313098</v>
+      </c>
+      <c r="E32" s="2">
+        <v>75.043953032222902</v>
+      </c>
+      <c r="F32" s="2">
+        <v>73.941361563987897</v>
+      </c>
+      <c r="G32" s="2">
+        <v>73.955824626564393</v>
+      </c>
+      <c r="H32" s="2">
+        <v>73.261808912944403</v>
+      </c>
+      <c r="I32" s="2">
+        <v>74.868219144660401</v>
+      </c>
+      <c r="J32" s="2">
+        <v>73.939493165372895</v>
+      </c>
+      <c r="K32" s="2">
+        <v>73.946427310258002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2">
+        <v>76.240775906434806</v>
+      </c>
+      <c r="E33" s="2">
+        <v>82.845036414922006</v>
+      </c>
+      <c r="F33" s="2">
+        <v>77.565088530449799</v>
+      </c>
+      <c r="G33" s="2">
+        <v>78.771108092287093</v>
+      </c>
+      <c r="H33" s="2">
+        <v>70.595121951219497</v>
+      </c>
+      <c r="I33" s="2">
+        <v>78.0292682926829</v>
+      </c>
+      <c r="J33" s="2">
+        <v>73.721951219512206</v>
+      </c>
+      <c r="K33" s="2">
+        <v>74.289756097560996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2">
+        <v>75.248082147701794</v>
+      </c>
+      <c r="E34" s="2">
+        <v>79.630632655853702</v>
+      </c>
+      <c r="F34" s="2">
+        <v>76.943086744115504</v>
+      </c>
+      <c r="G34" s="2">
+        <v>77.215034601415496</v>
+      </c>
+      <c r="H34" s="2">
+        <v>68.275758032885804</v>
+      </c>
+      <c r="I34" s="2">
+        <v>70.689395082214503</v>
+      </c>
+      <c r="J34" s="2">
+        <v>69.527832252225096</v>
+      </c>
+      <c r="K34" s="2">
+        <v>69.647005581535694</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2">
+        <v>88.481134689536205</v>
+      </c>
+      <c r="E35" s="2">
+        <v>90.277522670195296</v>
+      </c>
+      <c r="F35" s="2">
+        <v>89.429662658379996</v>
+      </c>
+      <c r="G35" s="2">
+        <v>89.330842129331202</v>
+      </c>
+      <c r="H35" s="2">
+        <v>77.257808963331797</v>
+      </c>
+      <c r="I35" s="2">
+        <v>79.408103214123997</v>
+      </c>
+      <c r="J35" s="2">
+        <v>77.696355817111794</v>
+      </c>
+      <c r="K35" s="2">
+        <v>77.980986871887694</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2">
+        <v>80.0008831676586</v>
+      </c>
+      <c r="E36" s="2">
+        <v>82.275307656186399</v>
+      </c>
+      <c r="F36" s="2">
+        <v>81.4497018991906</v>
+      </c>
+      <c r="G36" s="2">
+        <v>81.164638232389606</v>
+      </c>
+      <c r="H36" s="2">
+        <v>72.3640754288149</v>
+      </c>
+      <c r="I36" s="2">
+        <v>75.403956106395796</v>
+      </c>
+      <c r="J36" s="2">
+        <v>74.143257928193506</v>
+      </c>
+      <c r="K36" s="2">
+        <v>73.864483823999393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2">
+        <v>74.678317540807399</v>
+      </c>
+      <c r="E37" s="2">
+        <v>77.153289536577304</v>
+      </c>
+      <c r="F37" s="2">
+        <v>75.480482203597305</v>
+      </c>
+      <c r="G37" s="2">
+        <v>75.668710328999595</v>
+      </c>
+      <c r="H37" s="2">
+        <v>77.963544375316999</v>
+      </c>
+      <c r="I37" s="2">
+        <v>83.452433692239495</v>
+      </c>
+      <c r="J37" s="2">
+        <v>80.4903339304403</v>
+      </c>
+      <c r="K37" s="2">
+        <v>80.546320729883007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2">
+        <v>76.267604706079297</v>
+      </c>
+      <c r="E38" s="2">
+        <v>82.8524029908274</v>
+      </c>
+      <c r="F38" s="2">
+        <v>77.612620767082007</v>
+      </c>
+      <c r="G38" s="2">
+        <v>78.799617069394003</v>
+      </c>
+      <c r="H38" s="2">
+        <v>70.663414634146307</v>
+      </c>
+      <c r="I38" s="2">
+        <v>78.1756097560976</v>
+      </c>
+      <c r="J38" s="2">
+        <v>73.848780487804902</v>
+      </c>
+      <c r="K38" s="2">
+        <v>74.413658536585402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2">
+        <v>75.185051038972603</v>
+      </c>
+      <c r="E39" s="2">
+        <v>79.588548655488196</v>
+      </c>
+      <c r="F39" s="2">
+        <v>76.903608619088601</v>
+      </c>
+      <c r="G39" s="2">
+        <v>77.177674962317994</v>
+      </c>
+      <c r="H39" s="2">
+        <v>68.079650022627803</v>
+      </c>
+      <c r="I39" s="2">
+        <v>70.478201840398199</v>
+      </c>
+      <c r="J39" s="2">
+        <v>69.437320862875296</v>
+      </c>
+      <c r="K39" s="2">
+        <v>69.547443053250902</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2">
+        <v>88.481624838747194</v>
+      </c>
+      <c r="E40" s="2">
+        <v>90.280469172506898</v>
+      </c>
+      <c r="F40" s="2">
+        <v>89.424873774429599</v>
+      </c>
+      <c r="G40" s="2">
+        <v>89.329795621049001</v>
+      </c>
+      <c r="H40" s="2">
+        <v>77.235174287007695</v>
+      </c>
+      <c r="I40" s="2">
+        <v>79.419420552286098</v>
+      </c>
+      <c r="J40" s="2">
+        <v>77.690697148030793</v>
+      </c>
+      <c r="K40" s="2">
+        <v>77.978157537347201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2">
+        <v>79.998465691197893</v>
+      </c>
+      <c r="E41" s="2">
+        <v>82.256567411261202</v>
+      </c>
+      <c r="F41" s="2">
+        <v>81.432468429564807</v>
+      </c>
+      <c r="G41" s="2">
+        <v>81.150392759012405</v>
+      </c>
+      <c r="H41" s="2">
+        <v>72.360524166341094</v>
+      </c>
+      <c r="I41" s="2">
+        <v>75.375546006605305</v>
+      </c>
+      <c r="J41" s="2">
+        <v>74.118399090876807</v>
+      </c>
+      <c r="K41" s="2">
+        <v>73.843531375403998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2">
+        <v>73.529252058304806</v>
+      </c>
+      <c r="E42" s="2">
+        <v>75.456998245722701</v>
+      </c>
+      <c r="F42" s="2">
+        <v>74.190164345156106</v>
+      </c>
+      <c r="G42" s="2">
+        <v>74.268543304106402</v>
+      </c>
+      <c r="H42" s="2">
+        <v>77.542359278592102</v>
+      </c>
+      <c r="I42" s="2">
+        <v>82.696098259401197</v>
+      </c>
+      <c r="J42" s="2">
+        <v>79.957111029784699</v>
+      </c>
+      <c r="K42" s="2">
+        <v>80.062150483785004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="2">
+        <v>80.3469700372506</v>
+      </c>
+      <c r="E43" s="2">
+        <v>82.352851350679401</v>
+      </c>
+      <c r="F43" s="2">
+        <v>81.554636110495395</v>
+      </c>
+      <c r="G43" s="2">
+        <v>81.5274255907987</v>
+      </c>
+      <c r="H43" s="2">
+        <v>67.248780487804893</v>
+      </c>
+      <c r="I43" s="2">
+        <v>71.678048780487799</v>
+      </c>
+      <c r="J43" s="2">
+        <v>69.443902439024399</v>
+      </c>
+      <c r="K43" s="2">
+        <v>69.495609756097593</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="2">
+        <v>65.762675060025302</v>
+      </c>
+      <c r="E44" s="2">
+        <v>72.028577912200205</v>
+      </c>
+      <c r="F44" s="2">
+        <v>67.858445347911896</v>
+      </c>
+      <c r="G44" s="2">
+        <v>68.402389446911897</v>
+      </c>
+      <c r="H44" s="2">
+        <v>49.977372152662497</v>
+      </c>
+      <c r="I44" s="2">
+        <v>58.907829235178802</v>
+      </c>
+      <c r="J44" s="2">
+        <v>53.386634484839298</v>
+      </c>
+      <c r="K44" s="2">
+        <v>54.3113591793634</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2">
+        <v>82.176672465504097</v>
+      </c>
+      <c r="E45" s="2">
+        <v>84.721366901205897</v>
+      </c>
+      <c r="F45" s="2">
+        <v>83.180471883513306</v>
+      </c>
+      <c r="G45" s="2">
+        <v>83.229678331940605</v>
+      </c>
+      <c r="H45" s="2">
+        <v>55.058850158442702</v>
+      </c>
+      <c r="I45" s="2">
+        <v>61.164554096876401</v>
+      </c>
+      <c r="J45" s="2">
+        <v>57.353440470801303</v>
+      </c>
+      <c r="K45" s="2">
+        <v>57.974196468990499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2">
+        <v>66.5854634014525</v>
+      </c>
+      <c r="E46" s="2">
+        <v>76.032090582592701</v>
+      </c>
+      <c r="F46" s="2">
+        <v>70.289781849729906</v>
+      </c>
+      <c r="G46" s="2">
+        <v>70.888600431952298</v>
+      </c>
+      <c r="H46" s="2">
+        <v>52.555133349905901</v>
+      </c>
+      <c r="I46" s="2">
+        <v>65.7303171277389</v>
+      </c>
+      <c r="J46" s="2">
+        <v>57.688483255797401</v>
+      </c>
+      <c r="K46" s="2">
+        <v>58.543627259490698</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2">
+        <v>73.456413872453894</v>
+      </c>
+      <c r="E47" s="2">
+        <v>75.472478041339997</v>
+      </c>
+      <c r="F47" s="2">
+        <v>74.479591283845707</v>
+      </c>
+      <c r="G47" s="2">
+        <v>74.511429768331894</v>
+      </c>
+      <c r="H47" s="2">
+        <v>78.938819012398</v>
+      </c>
+      <c r="I47" s="2">
+        <v>80.535598487329096</v>
+      </c>
+      <c r="J47" s="2">
+        <v>79.610403785529499</v>
+      </c>
+      <c r="K47" s="2">
+        <v>79.707096583649502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>